--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2829793.564555279</v>
+        <v>-2830441.923782083</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1367,14 +1367,14 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>72.40356150710446</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>37.19202471399047</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>72.40356150710446</v>
       </c>
-      <c r="W11" t="n">
-        <v>26.58103226146713</v>
-      </c>
       <c r="X11" t="n">
-        <v>72.40356150710446</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>63.77305697545759</v>
       </c>
     </row>
     <row r="12">
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.556120159855455</v>
+        <v>6.556120159855453</v>
       </c>
       <c r="T13" t="n">
         <v>13.00701368779536</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19.47552824536771</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>72.40356150710446</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>72.40356150710446</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>63.77305697545759</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>72.40356150710446</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.10550401609934</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>37.19202471399044</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.80690084957008</v>
+        <v>11.80690084957005</v>
       </c>
       <c r="V15" t="n">
-        <v>18.68115031993872</v>
+        <v>18.68115031993869</v>
       </c>
       <c r="W15" t="n">
-        <v>37.57554633143306</v>
+        <v>37.57554633143303</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.556120159855455</v>
+        <v>6.556120159855425</v>
       </c>
       <c r="T16" t="n">
-        <v>13.00701368779536</v>
+        <v>13.00701368779533</v>
       </c>
       <c r="U16" t="n">
-        <v>72.18913543452349</v>
+        <v>72.18913543452346</v>
       </c>
       <c r="V16" t="n">
-        <v>38.01820649434146</v>
+        <v>38.01820649434143</v>
       </c>
       <c r="W16" t="n">
-        <v>72.40356150710446</v>
+        <v>72.40356150710443</v>
       </c>
       <c r="X16" t="n">
-        <v>11.59021855955061</v>
+        <v>11.59021855955058</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.465216522608245</v>
+        <v>4.465216522608216</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.88964134293047</v>
+        <v>34.88964134293053</v>
       </c>
       <c r="C17" t="n">
-        <v>17.42869145045782</v>
+        <v>17.42869145045751</v>
       </c>
       <c r="D17" t="n">
-        <v>6.838841300132856</v>
+        <v>6.838841300132913</v>
       </c>
       <c r="E17" t="n">
-        <v>34.08616975171168</v>
+        <v>34.08616975171174</v>
       </c>
       <c r="F17" t="n">
-        <v>59.03184542116134</v>
+        <v>59.03184542116139</v>
       </c>
       <c r="G17" t="n">
-        <v>67.03114514009141</v>
+        <v>67.03114514009147</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.39676839686291</v>
+        <v>1.396768396862967</v>
       </c>
       <c r="X17" t="n">
-        <v>21.88690035791893</v>
+        <v>21.88690035791899</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.39373833550349</v>
+        <v>38.39373833550344</v>
       </c>
     </row>
     <row r="18">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.88964134293047</v>
+        <v>34.88964134293053</v>
       </c>
       <c r="C20" t="n">
-        <v>17.42869145045745</v>
+        <v>17.42869145045751</v>
       </c>
       <c r="D20" t="n">
-        <v>6.838841300132856</v>
+        <v>6.838841300132913</v>
       </c>
       <c r="E20" t="n">
-        <v>34.08616975171168</v>
+        <v>34.08616975171174</v>
       </c>
       <c r="F20" t="n">
-        <v>59.03184542116215</v>
+        <v>59.03184542116139</v>
       </c>
       <c r="G20" t="n">
-        <v>67.03114514009144</v>
+        <v>67.0311451400915</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.39676839686291</v>
+        <v>1.396768396863067</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88690035791893</v>
+        <v>21.88690035791899</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.39373833550349</v>
+        <v>38.39373833550354</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.88964134293047</v>
+        <v>34.88964134293053</v>
       </c>
       <c r="C23" t="n">
-        <v>17.42869145045745</v>
+        <v>17.42869145045751</v>
       </c>
       <c r="D23" t="n">
-        <v>6.838841300132856</v>
+        <v>6.838841300132913</v>
       </c>
       <c r="E23" t="n">
-        <v>34.08616975171168</v>
+        <v>34.08616975171174</v>
       </c>
       <c r="F23" t="n">
-        <v>59.03184542116134</v>
+        <v>59.03184542116139</v>
       </c>
       <c r="G23" t="n">
-        <v>67.03114514009144</v>
+        <v>67.0311451400915</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.39676839686291</v>
+        <v>1.396768396862967</v>
       </c>
       <c r="X23" t="n">
-        <v>21.88690035791893</v>
+        <v>21.88690035791899</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.39373833550349</v>
+        <v>38.39373833550354</v>
       </c>
     </row>
     <row r="24">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.5089008178946</v>
+        <v>161.5089008178947</v>
       </c>
       <c r="C26" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D26" t="n">
-        <v>133.458100775097</v>
+        <v>133.4581007750971</v>
       </c>
       <c r="E26" t="n">
-        <v>160.7054292266758</v>
+        <v>160.7054292266759</v>
       </c>
       <c r="F26" t="n">
         <v>185.6511048961255</v>
@@ -2570,7 +2570,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H26" t="n">
-        <v>113.8728323920993</v>
+        <v>113.8728323920994</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.08652069789107</v>
+        <v>30.08652069789111</v>
       </c>
       <c r="V26" t="n">
         <v>106.527317624549</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>4.701396833470687</v>
+        <v>4.701396833470715</v>
       </c>
       <c r="V27" t="n">
-        <v>11.57564630383933</v>
+        <v>11.57564630383936</v>
       </c>
       <c r="W27" t="n">
-        <v>30.47004231533367</v>
+        <v>30.4700423153337</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>5.901509671695967</v>
+        <v>5.901509671695995</v>
       </c>
       <c r="U28" t="n">
-        <v>65.0836314184241</v>
+        <v>65.08363141842413</v>
       </c>
       <c r="V28" t="n">
-        <v>30.91270247824207</v>
+        <v>30.9127024782421</v>
       </c>
       <c r="W28" t="n">
-        <v>65.29805749100507</v>
+        <v>65.2980574910051</v>
       </c>
       <c r="X28" t="n">
-        <v>4.484714543451219</v>
+        <v>4.484714543451247</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>5.901509671695996</v>
+        <v>5.901509671695995</v>
       </c>
       <c r="U31" t="n">
         <v>65.08363141842413</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.5089008178947</v>
+        <v>161.5089008178946</v>
       </c>
       <c r="C32" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D32" t="n">
-        <v>133.4581007750971</v>
+        <v>133.458100775097</v>
       </c>
       <c r="E32" t="n">
-        <v>160.7054292266759</v>
+        <v>160.7054292266758</v>
       </c>
       <c r="F32" t="n">
         <v>185.6511048961255</v>
@@ -3044,7 +3044,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H32" t="n">
-        <v>113.8728323920994</v>
+        <v>113.8728323920993</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.0865206978911</v>
+        <v>30.08652069789107</v>
       </c>
       <c r="V32" t="n">
         <v>106.527317624549</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>4.701396833470715</v>
+        <v>4.701396833470687</v>
       </c>
       <c r="V33" t="n">
-        <v>11.57564630383936</v>
+        <v>11.57564630383933</v>
       </c>
       <c r="W33" t="n">
-        <v>30.4700423153337</v>
+        <v>30.47004231533367</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.901509671695996</v>
+        <v>5.901509671695966</v>
       </c>
       <c r="U34" t="n">
-        <v>65.08363141842413</v>
+        <v>65.0836314184241</v>
       </c>
       <c r="V34" t="n">
-        <v>30.9127024782421</v>
+        <v>30.91270247824207</v>
       </c>
       <c r="W34" t="n">
-        <v>65.2980574910051</v>
+        <v>65.29805749100507</v>
       </c>
       <c r="X34" t="n">
-        <v>4.484714543451247</v>
+        <v>4.484714543451219</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>162.2357931047279</v>
       </c>
       <c r="G35" t="n">
-        <v>170.2350928236581</v>
+        <v>170.235092823658</v>
       </c>
       <c r="H35" t="n">
         <v>90.45752060070177</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.671208906493518</v>
+        <v>6.671208906493522</v>
       </c>
       <c r="V35" t="n">
         <v>83.11200583315141</v>
@@ -3515,7 +3515,7 @@
         <v>162.2357931047279</v>
       </c>
       <c r="G38" t="n">
-        <v>170.235092823658</v>
+        <v>170.2350928236581</v>
       </c>
       <c r="H38" t="n">
         <v>90.45752060070177</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.671208906493522</v>
+        <v>6.671208906493518</v>
       </c>
       <c r="V38" t="n">
         <v>83.11200583315141</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.0935890264972</v>
+        <v>138.0935890264971</v>
       </c>
       <c r="C41" t="n">
         <v>120.6326391340241</v>
       </c>
       <c r="D41" t="n">
-        <v>110.0427889836996</v>
+        <v>110.0427889836995</v>
       </c>
       <c r="E41" t="n">
-        <v>137.2901174352784</v>
+        <v>137.2901174352783</v>
       </c>
       <c r="F41" t="n">
-        <v>162.235793104728</v>
+        <v>162.2357931047279</v>
       </c>
       <c r="G41" t="n">
-        <v>170.2350928236581</v>
+        <v>170.235092823658</v>
       </c>
       <c r="H41" t="n">
-        <v>90.45752060070186</v>
+        <v>90.45752060070177</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.671208906493607</v>
+        <v>6.671208906493522</v>
       </c>
       <c r="V41" t="n">
-        <v>83.1120058331515</v>
+        <v>83.11200583315141</v>
       </c>
       <c r="W41" t="n">
-        <v>104.6007160804296</v>
+        <v>104.6007160804295</v>
       </c>
       <c r="X41" t="n">
-        <v>125.0908480414856</v>
+        <v>125.0908480414855</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.5976860190702</v>
+        <v>141.5976860190701</v>
       </c>
     </row>
     <row r="42">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>7.0547305239362</v>
+        <v>7.054730523936115</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>41.66831962702663</v>
+        <v>41.66831962702655</v>
       </c>
       <c r="V43" t="n">
-        <v>7.497390686844597</v>
+        <v>7.497390686844511</v>
       </c>
       <c r="W43" t="n">
-        <v>41.8827456996076</v>
+        <v>41.88274569960751</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.0935890264972</v>
+        <v>138.0935890264971</v>
       </c>
       <c r="C44" t="n">
         <v>120.6326391340241</v>
       </c>
       <c r="D44" t="n">
-        <v>110.0427889836996</v>
+        <v>110.0427889836995</v>
       </c>
       <c r="E44" t="n">
-        <v>137.2901174352784</v>
+        <v>137.2901174352783</v>
       </c>
       <c r="F44" t="n">
-        <v>162.235793104728</v>
+        <v>162.2357931047279</v>
       </c>
       <c r="G44" t="n">
-        <v>170.2350928236581</v>
+        <v>170.235092823658</v>
       </c>
       <c r="H44" t="n">
-        <v>90.45752060070186</v>
+        <v>90.45752060070177</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.671208906493607</v>
+        <v>6.671208906493522</v>
       </c>
       <c r="V44" t="n">
-        <v>83.1120058331515</v>
+        <v>83.11200583315141</v>
       </c>
       <c r="W44" t="n">
-        <v>104.6007160804296</v>
+        <v>104.6007160804295</v>
       </c>
       <c r="X44" t="n">
-        <v>125.0908480414856</v>
+        <v>125.0908480414855</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.5976860190702</v>
+        <v>141.5976860190701</v>
       </c>
     </row>
     <row r="45">
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>7.0547305239362</v>
+        <v>7.054730523936115</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>41.66831962702663</v>
+        <v>41.66831962702655</v>
       </c>
       <c r="V46" t="n">
-        <v>7.497390686844597</v>
+        <v>7.497390686844511</v>
       </c>
       <c r="W46" t="n">
-        <v>41.8827456996076</v>
+        <v>41.88274569960751</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.792284920568356</v>
+        <v>152.062106147042</v>
       </c>
       <c r="C11" t="n">
-        <v>5.792284920568356</v>
+        <v>152.062106147042</v>
       </c>
       <c r="D11" t="n">
-        <v>5.792284920568356</v>
+        <v>78.92719553380519</v>
       </c>
       <c r="E11" t="n">
-        <v>5.792284920568356</v>
+        <v>78.92719553380519</v>
       </c>
       <c r="F11" t="n">
-        <v>5.792284920568356</v>
+        <v>78.92719553380519</v>
       </c>
       <c r="G11" t="n">
-        <v>5.792284920568356</v>
+        <v>78.92719553380519</v>
       </c>
       <c r="H11" t="n">
         <v>5.792284920568356</v>
       </c>
       <c r="I11" t="n">
-        <v>5.792284920568356</v>
+        <v>25.71165856611151</v>
       </c>
       <c r="J11" t="n">
-        <v>5.792284920568356</v>
+        <v>94.36607826710359</v>
       </c>
       <c r="K11" t="n">
-        <v>53.70378817849323</v>
+        <v>136.0938412244588</v>
       </c>
       <c r="L11" t="n">
-        <v>118.5605682683802</v>
+        <v>136.0938412244588</v>
       </c>
       <c r="M11" t="n">
-        <v>118.5605682683802</v>
+        <v>194.3251548283522</v>
       </c>
       <c r="N11" t="n">
-        <v>190.2400941604136</v>
+        <v>194.3251548283522</v>
       </c>
       <c r="O11" t="n">
-        <v>245.7117528054672</v>
+        <v>249.7968134734058</v>
       </c>
       <c r="P11" t="n">
-        <v>289.6142460284178</v>
+        <v>249.7968134734058</v>
       </c>
       <c r="Q11" t="n">
-        <v>289.6142460284178</v>
+        <v>249.7968134734058</v>
       </c>
       <c r="R11" t="n">
-        <v>289.6142460284178</v>
+        <v>274.9240679802554</v>
       </c>
       <c r="S11" t="n">
         <v>289.6142460284178</v>
@@ -5072,19 +5072,19 @@
         <v>289.6142460284178</v>
       </c>
       <c r="U11" t="n">
-        <v>252.0465442971143</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="V11" t="n">
-        <v>178.9116336838775</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="W11" t="n">
+        <v>216.479335415181</v>
+      </c>
+      <c r="X11" t="n">
+        <v>216.479335415181</v>
+      </c>
+      <c r="Y11" t="n">
         <v>152.062106147042</v>
-      </c>
-      <c r="X11" t="n">
-        <v>78.92719553380519</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>78.92719553380519</v>
       </c>
     </row>
     <row r="12">
@@ -5112,37 +5112,37 @@
         <v>5.792284920568356</v>
       </c>
       <c r="H12" t="n">
-        <v>5.792284920568356</v>
+        <v>28.32642965883053</v>
       </c>
       <c r="I12" t="n">
-        <v>5.792284920568356</v>
+        <v>28.32642965883053</v>
       </c>
       <c r="J12" t="n">
-        <v>5.792284920568356</v>
+        <v>28.32642965883053</v>
       </c>
       <c r="K12" t="n">
-        <v>5.792284920568356</v>
+        <v>28.32642965883053</v>
       </c>
       <c r="L12" t="n">
-        <v>5.792284920568356</v>
+        <v>28.32642965883053</v>
       </c>
       <c r="M12" t="n">
-        <v>5.792284920568356</v>
+        <v>28.32642965883053</v>
       </c>
       <c r="N12" t="n">
-        <v>5.792284920568356</v>
+        <v>28.32642965883053</v>
       </c>
       <c r="O12" t="n">
-        <v>5.792284920568356</v>
+        <v>28.32642965883053</v>
       </c>
       <c r="P12" t="n">
-        <v>74.54339350737831</v>
+        <v>28.32642965883053</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.54339350737831</v>
+        <v>28.32642965883053</v>
       </c>
       <c r="R12" t="n">
-        <v>74.54339350737831</v>
+        <v>28.32642965883053</v>
       </c>
       <c r="S12" t="n">
         <v>74.54339350737831</v>
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.792284920568356</v>
+        <v>39.73686700164211</v>
       </c>
       <c r="C13" t="n">
-        <v>5.792284920568356</v>
+        <v>39.73686700164211</v>
       </c>
       <c r="D13" t="n">
-        <v>5.792284920568356</v>
+        <v>39.73686700164211</v>
       </c>
       <c r="E13" t="n">
-        <v>72.80090436165656</v>
+        <v>82.86704360698545</v>
       </c>
       <c r="F13" t="n">
-        <v>72.80090436165656</v>
+        <v>82.86704360698545</v>
       </c>
       <c r="G13" t="n">
-        <v>72.80090436165656</v>
+        <v>82.86704360698545</v>
       </c>
       <c r="H13" t="n">
-        <v>125.8617070541172</v>
+        <v>82.86704360698545</v>
       </c>
       <c r="I13" t="n">
-        <v>125.8617070541172</v>
+        <v>82.86704360698545</v>
       </c>
       <c r="J13" t="n">
-        <v>125.8617070541172</v>
+        <v>154.5465694990189</v>
       </c>
       <c r="K13" t="n">
-        <v>125.8617070541172</v>
+        <v>154.5465694990189</v>
       </c>
       <c r="L13" t="n">
-        <v>125.8617070541172</v>
+        <v>154.5465694990189</v>
       </c>
       <c r="M13" t="n">
-        <v>125.8617070541172</v>
+        <v>154.5465694990189</v>
       </c>
       <c r="N13" t="n">
-        <v>125.8617070541172</v>
+        <v>154.5465694990189</v>
       </c>
       <c r="O13" t="n">
-        <v>125.8617070541172</v>
+        <v>154.5465694990189</v>
       </c>
       <c r="P13" t="n">
-        <v>125.8617070541172</v>
+        <v>154.5465694990189</v>
       </c>
       <c r="Q13" t="n">
-        <v>197.5412329461506</v>
+        <v>226.2260953910523</v>
       </c>
       <c r="R13" t="n">
         <v>226.2260953910523</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>216.479335415181</v>
+        <v>171.7343568999387</v>
       </c>
       <c r="C14" t="n">
-        <v>216.479335415181</v>
+        <v>152.062106147042</v>
       </c>
       <c r="D14" t="n">
-        <v>216.479335415181</v>
+        <v>152.062106147042</v>
       </c>
       <c r="E14" t="n">
-        <v>216.479335415181</v>
+        <v>78.92719553380519</v>
       </c>
       <c r="F14" t="n">
-        <v>143.3444248019442</v>
+        <v>78.92719553380519</v>
       </c>
       <c r="G14" t="n">
         <v>78.92719553380519</v>
@@ -5273,55 +5273,55 @@
         <v>5.792284920568356</v>
       </c>
       <c r="I14" t="n">
-        <v>5.792284920568356</v>
+        <v>25.71165856611154</v>
       </c>
       <c r="J14" t="n">
-        <v>5.792284920568356</v>
+        <v>44.20086327527703</v>
       </c>
       <c r="K14" t="n">
-        <v>23.5094472524131</v>
+        <v>44.20086327527703</v>
       </c>
       <c r="L14" t="n">
-        <v>68.85015381641074</v>
+        <v>89.54156983927476</v>
       </c>
       <c r="M14" t="n">
-        <v>68.85015381641074</v>
+        <v>147.7728834431682</v>
       </c>
       <c r="N14" t="n">
-        <v>140.5296797084441</v>
+        <v>147.7728834431682</v>
       </c>
       <c r="O14" t="n">
-        <v>140.5296797084441</v>
+        <v>203.2445420882219</v>
       </c>
       <c r="P14" t="n">
-        <v>212.2092056004776</v>
+        <v>203.2445420882219</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.7968134734059</v>
+        <v>203.2445420882219</v>
       </c>
       <c r="R14" t="n">
-        <v>274.9240679802554</v>
+        <v>274.9240679802553</v>
       </c>
       <c r="S14" t="n">
         <v>289.6142460284178</v>
       </c>
       <c r="T14" t="n">
-        <v>289.6142460284178</v>
+        <v>282.4369692444791</v>
       </c>
       <c r="U14" t="n">
-        <v>289.6142460284178</v>
+        <v>244.8692675131756</v>
       </c>
       <c r="V14" t="n">
-        <v>289.6142460284178</v>
+        <v>244.8692675131756</v>
       </c>
       <c r="W14" t="n">
-        <v>289.6142460284178</v>
+        <v>244.8692675131756</v>
       </c>
       <c r="X14" t="n">
-        <v>289.6142460284178</v>
+        <v>171.7343568999387</v>
       </c>
       <c r="Y14" t="n">
-        <v>289.6142460284178</v>
+        <v>171.7343568999387</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.792284920568356</v>
+        <v>18.81890083735439</v>
       </c>
       <c r="C15" t="n">
-        <v>5.792284920568356</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="D15" t="n">
-        <v>5.792284920568356</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="E15" t="n">
-        <v>5.792284920568356</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="F15" t="n">
-        <v>5.792284920568356</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="G15" t="n">
-        <v>5.792284920568356</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="H15" t="n">
-        <v>5.792284920568356</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="I15" t="n">
-        <v>5.792284920568356</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="J15" t="n">
-        <v>5.792284920568356</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="K15" t="n">
-        <v>5.792284920568356</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="L15" t="n">
-        <v>5.792284920568356</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="M15" t="n">
-        <v>5.792284920568356</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="N15" t="n">
-        <v>5.792284920568356</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="O15" t="n">
-        <v>74.54339350737831</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="P15" t="n">
-        <v>74.54339350737831</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.54339350737831</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="R15" t="n">
-        <v>74.54339350737831</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="S15" t="n">
-        <v>74.54339350737831</v>
+        <v>59.81572930011352</v>
       </c>
       <c r="T15" t="n">
-        <v>74.54339350737831</v>
+        <v>74.54339350737823</v>
       </c>
       <c r="U15" t="n">
-        <v>62.61723103306511</v>
+        <v>62.61723103306505</v>
       </c>
       <c r="V15" t="n">
-        <v>43.7473822250462</v>
+        <v>43.74738222504617</v>
       </c>
       <c r="W15" t="n">
         <v>5.792284920568356</v>
       </c>
       <c r="X15" t="n">
-        <v>5.792284920568356</v>
+        <v>14.05527203031736</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.792284920568356</v>
+        <v>18.81890083735439</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.73686700164211</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="C16" t="n">
-        <v>39.73686700164211</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="D16" t="n">
-        <v>39.73686700164211</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="E16" t="n">
-        <v>39.73686700164211</v>
+        <v>72.80090436165659</v>
       </c>
       <c r="F16" t="n">
-        <v>39.73686700164211</v>
+        <v>72.80090436165659</v>
       </c>
       <c r="G16" t="n">
-        <v>39.73686700164211</v>
+        <v>72.80090436165659</v>
       </c>
       <c r="H16" t="n">
-        <v>39.73686700164211</v>
+        <v>72.80090436165659</v>
       </c>
       <c r="I16" t="n">
-        <v>39.73686700164211</v>
+        <v>72.80090436165659</v>
       </c>
       <c r="J16" t="n">
-        <v>39.73686700164211</v>
+        <v>72.80090436165659</v>
       </c>
       <c r="K16" t="n">
-        <v>82.86704360698545</v>
+        <v>72.80090436165659</v>
       </c>
       <c r="L16" t="n">
-        <v>82.86704360698545</v>
+        <v>144.48043025369</v>
       </c>
       <c r="M16" t="n">
-        <v>82.86704360698545</v>
+        <v>216.1599561457234</v>
       </c>
       <c r="N16" t="n">
-        <v>82.86704360698545</v>
+        <v>216.1599561457234</v>
       </c>
       <c r="O16" t="n">
-        <v>154.5465694990189</v>
+        <v>226.2260953910521</v>
       </c>
       <c r="P16" t="n">
-        <v>226.2260953910523</v>
+        <v>226.2260953910521</v>
       </c>
       <c r="Q16" t="n">
-        <v>226.2260953910523</v>
+        <v>226.2260953910521</v>
       </c>
       <c r="R16" t="n">
-        <v>226.2260953910523</v>
+        <v>226.2260953910521</v>
       </c>
       <c r="S16" t="n">
-        <v>219.6037517952387</v>
+        <v>219.6037517952385</v>
       </c>
       <c r="T16" t="n">
-        <v>206.4653541307989</v>
+        <v>206.4653541307988</v>
       </c>
       <c r="U16" t="n">
-        <v>133.5470355100681</v>
+        <v>133.547035510068</v>
       </c>
       <c r="V16" t="n">
-        <v>95.14480672790503</v>
+        <v>95.14480672790495</v>
       </c>
       <c r="W16" t="n">
-        <v>22.00989611466821</v>
+        <v>22.00989611466815</v>
       </c>
       <c r="X16" t="n">
-        <v>10.30260464037466</v>
+        <v>10.30260464037464</v>
       </c>
       <c r="Y16" t="n">
         <v>5.792284920568356</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0717728635532</v>
+        <v>192.0717728635529</v>
       </c>
       <c r="C17" t="n">
         <v>174.4670340247069</v>
       </c>
       <c r="D17" t="n">
-        <v>167.5591135195222</v>
+        <v>167.5591135195221</v>
       </c>
       <c r="E17" t="n">
-        <v>133.1286390228437</v>
+        <v>133.1286390228436</v>
       </c>
       <c r="F17" t="n">
-        <v>73.5005123348021</v>
+        <v>73.50051233480215</v>
       </c>
       <c r="G17" t="n">
         <v>5.792284920568356</v>
@@ -5510,40 +5510,40 @@
         <v>5.792284920568356</v>
       </c>
       <c r="I17" t="n">
-        <v>5.792284920568356</v>
+        <v>74.57566835231759</v>
       </c>
       <c r="J17" t="n">
-        <v>5.792284920568356</v>
+        <v>146.255194244351</v>
       </c>
       <c r="K17" t="n">
-        <v>74.57566835231759</v>
+        <v>146.255194244351</v>
       </c>
       <c r="L17" t="n">
-        <v>74.57566835231759</v>
+        <v>146.255194244351</v>
       </c>
       <c r="M17" t="n">
         <v>146.255194244351</v>
       </c>
       <c r="N17" t="n">
+        <v>146.255194244351</v>
+      </c>
+      <c r="O17" t="n">
+        <v>146.255194244351</v>
+      </c>
+      <c r="P17" t="n">
+        <v>146.255194244351</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>146.255194244351</v>
+      </c>
+      <c r="R17" t="n">
+        <v>146.255194244351</v>
+      </c>
+      <c r="S17" t="n">
+        <v>146.255194244351</v>
+      </c>
+      <c r="T17" t="n">
         <v>217.9347201363844</v>
-      </c>
-      <c r="O17" t="n">
-        <v>217.9347201363844</v>
-      </c>
-      <c r="P17" t="n">
-        <v>217.9347201363844</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>217.9347201363844</v>
-      </c>
-      <c r="R17" t="n">
-        <v>289.6142460284178</v>
-      </c>
-      <c r="S17" t="n">
-        <v>289.6142460284178</v>
-      </c>
-      <c r="T17" t="n">
-        <v>289.6142460284178</v>
       </c>
       <c r="U17" t="n">
         <v>289.6142460284178</v>
@@ -5555,10 +5555,10 @@
         <v>288.2033688598694</v>
       </c>
       <c r="X17" t="n">
-        <v>266.0953887003553</v>
+        <v>266.0953887003552</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3138348261092</v>
+        <v>227.313834826109</v>
       </c>
     </row>
     <row r="18">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.0717728635539</v>
+        <v>192.0717728635531</v>
       </c>
       <c r="C20" t="n">
-        <v>174.4670340247079</v>
+        <v>174.467034024707</v>
       </c>
       <c r="D20" t="n">
-        <v>167.5591135195233</v>
+        <v>167.5591135195222</v>
       </c>
       <c r="E20" t="n">
-        <v>133.1286390228448</v>
+        <v>133.1286390228437</v>
       </c>
       <c r="F20" t="n">
-        <v>73.50051233480212</v>
+        <v>73.50051233480218</v>
       </c>
       <c r="G20" t="n">
         <v>5.792284920568356</v>
@@ -5753,49 +5753,49 @@
         <v>5.792284920568356</v>
       </c>
       <c r="K20" t="n">
-        <v>5.792284920568356</v>
+        <v>74.57566835231759</v>
       </c>
       <c r="L20" t="n">
-        <v>5.792284920568356</v>
+        <v>74.57566835231759</v>
       </c>
       <c r="M20" t="n">
-        <v>5.792284920568356</v>
+        <v>74.57566835231759</v>
       </c>
       <c r="N20" t="n">
-        <v>5.792284920568356</v>
+        <v>74.57566835231759</v>
       </c>
       <c r="O20" t="n">
-        <v>77.47181081260177</v>
+        <v>74.57566835231759</v>
       </c>
       <c r="P20" t="n">
-        <v>149.1513367046352</v>
+        <v>74.57566835231759</v>
       </c>
       <c r="Q20" t="n">
-        <v>149.1513367046352</v>
+        <v>146.255194244351</v>
       </c>
       <c r="R20" t="n">
-        <v>198.0436977044734</v>
+        <v>217.9347201363844</v>
       </c>
       <c r="S20" t="n">
-        <v>198.0436977044734</v>
+        <v>217.9347201363844</v>
       </c>
       <c r="T20" t="n">
-        <v>198.0436977044734</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="U20" t="n">
-        <v>269.7232235965068</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="V20" t="n">
         <v>289.6142460284178</v>
       </c>
       <c r="W20" t="n">
-        <v>288.2033688598698</v>
+        <v>288.2033688598693</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0953887003558</v>
+        <v>266.0953887003551</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3138348261099</v>
+        <v>227.3138348261091</v>
       </c>
     </row>
     <row r="21">
@@ -5966,70 +5966,70 @@
         <v>192.0717728635528</v>
       </c>
       <c r="C23" t="n">
-        <v>174.4670340247069</v>
+        <v>174.4670340247068</v>
       </c>
       <c r="D23" t="n">
-        <v>167.5591135195223</v>
+        <v>167.5591135195222</v>
       </c>
       <c r="E23" t="n">
-        <v>133.1286390228443</v>
+        <v>133.1286390228439</v>
       </c>
       <c r="F23" t="n">
-        <v>73.50051233480212</v>
+        <v>73.50051233480218</v>
       </c>
       <c r="G23" t="n">
         <v>5.792284920568356</v>
       </c>
       <c r="H23" t="n">
-        <v>5.792284920568356</v>
+        <v>18.4112477326045</v>
       </c>
       <c r="I23" t="n">
-        <v>5.792284920568356</v>
+        <v>90.0907736246379</v>
       </c>
       <c r="J23" t="n">
-        <v>77.47181081260177</v>
+        <v>161.7702995166713</v>
       </c>
       <c r="K23" t="n">
-        <v>77.47181081260177</v>
+        <v>161.7702995166713</v>
       </c>
       <c r="L23" t="n">
-        <v>77.47181081260177</v>
+        <v>161.7702995166713</v>
       </c>
       <c r="M23" t="n">
-        <v>149.1513367046352</v>
+        <v>161.7702995166713</v>
       </c>
       <c r="N23" t="n">
-        <v>217.9347201363844</v>
+        <v>161.7702995166713</v>
       </c>
       <c r="O23" t="n">
-        <v>217.9347201363844</v>
+        <v>161.7702995166713</v>
       </c>
       <c r="P23" t="n">
-        <v>217.9347201363844</v>
+        <v>161.7702995166713</v>
       </c>
       <c r="Q23" t="n">
-        <v>217.9347201363844</v>
+        <v>198.0436977044734</v>
       </c>
       <c r="R23" t="n">
-        <v>217.9347201363844</v>
+        <v>198.0436977044734</v>
       </c>
       <c r="S23" t="n">
-        <v>289.6142460284178</v>
+        <v>198.0436977044734</v>
       </c>
       <c r="T23" t="n">
-        <v>289.6142460284178</v>
+        <v>269.7232235965068</v>
       </c>
       <c r="U23" t="n">
-        <v>289.6142460284178</v>
+        <v>269.7232235965068</v>
       </c>
       <c r="V23" t="n">
         <v>289.6142460284178</v>
       </c>
       <c r="W23" t="n">
-        <v>288.203368859869</v>
+        <v>288.2033688598691</v>
       </c>
       <c r="X23" t="n">
-        <v>266.095388700355</v>
+        <v>266.0953887003551</v>
       </c>
       <c r="Y23" t="n">
         <v>227.3138348261089</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>975.2411681339781</v>
+        <v>975.2411681339775</v>
       </c>
       <c r="C26" t="n">
-        <v>829.7381874012291</v>
+        <v>829.7381874012286</v>
       </c>
       <c r="D26" t="n">
-        <v>694.9320250021411</v>
+        <v>694.9320250021407</v>
       </c>
       <c r="E26" t="n">
-        <v>532.6033086115594</v>
+        <v>532.603308611559</v>
       </c>
       <c r="F26" t="n">
-        <v>345.0769400296144</v>
+        <v>345.076940029614</v>
       </c>
       <c r="G26" t="n">
         <v>149.4704707214771</v>
@@ -6221,34 +6221,34 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I26" t="n">
-        <v>34.44740769915455</v>
+        <v>61.40123032063607</v>
       </c>
       <c r="J26" t="n">
-        <v>110.136276376085</v>
+        <v>300.3261471330119</v>
       </c>
       <c r="K26" t="n">
-        <v>110.136276376085</v>
+        <v>300.3261471330119</v>
       </c>
       <c r="L26" t="n">
-        <v>162.511431916021</v>
+        <v>352.701302672948</v>
       </c>
       <c r="M26" t="n">
-        <v>468.1176776322077</v>
+        <v>643.9727719735538</v>
       </c>
       <c r="N26" t="n">
-        <v>894.4043479092453</v>
+        <v>711.364556885842</v>
       </c>
       <c r="O26" t="n">
-        <v>1320.691018186283</v>
+        <v>979.0932378857574</v>
       </c>
       <c r="P26" t="n">
-        <v>1690.20868147494</v>
+        <v>1348.610901174414</v>
       </c>
       <c r="Q26" t="n">
-        <v>1690.20868147494</v>
+        <v>1603.424798776587</v>
       </c>
       <c r="R26" t="n">
-        <v>1722.370384957728</v>
+        <v>1700.645757933627</v>
       </c>
       <c r="S26" t="n">
         <v>1722.370384957728</v>
@@ -6297,49 +6297,49 @@
         <v>34.44740769915455</v>
       </c>
       <c r="H27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="I27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="J27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="K27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="L27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="M27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="N27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="O27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="P27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="R27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="S27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="T27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="U27" t="n">
-        <v>76.91780024377375</v>
+        <v>76.91780024377381</v>
       </c>
       <c r="V27" t="n">
-        <v>65.22522821969362</v>
+        <v>65.22522821969365</v>
       </c>
       <c r="W27" t="n">
         <v>34.44740769915455</v>
@@ -6358,70 +6358,70 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N28" t="n">
-        <v>197.0744403981789</v>
+        <v>156.0954093411667</v>
       </c>
       <c r="O28" t="n">
-        <v>197.0744403981789</v>
+        <v>156.0954093411667</v>
       </c>
       <c r="P28" t="n">
-        <v>207.3182809166432</v>
+        <v>156.0954093411667</v>
       </c>
       <c r="Q28" t="n">
-        <v>207.3182809166432</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="R28" t="n">
-        <v>207.3182809166432</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="S28" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="T28" t="n">
-        <v>201.9010500538237</v>
+        <v>201.9010500538238</v>
       </c>
       <c r="U28" t="n">
-        <v>136.1600082170317</v>
+        <v>136.1600082170318</v>
       </c>
       <c r="V28" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W28" t="n">
-        <v>38.97742238950932</v>
+        <v>38.97742238950935</v>
       </c>
       <c r="X28" t="n">
         <v>34.44740769915455</v>
@@ -6458,34 +6458,34 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I29" t="n">
-        <v>61.40123032063606</v>
+        <v>61.40123032063607</v>
       </c>
       <c r="J29" t="n">
-        <v>148.307527097639</v>
+        <v>304.4957480179195</v>
       </c>
       <c r="K29" t="n">
-        <v>249.807353182551</v>
+        <v>680.3456586972359</v>
       </c>
       <c r="L29" t="n">
-        <v>496.6544196903029</v>
+        <v>732.7208142371719</v>
       </c>
       <c r="M29" t="n">
-        <v>922.9410899673405</v>
+        <v>1159.007484514209</v>
       </c>
       <c r="N29" t="n">
-        <v>990.3328748796288</v>
+        <v>1226.399269426498</v>
       </c>
       <c r="O29" t="n">
-        <v>1416.619545156666</v>
+        <v>1297.673958975525</v>
       </c>
       <c r="P29" t="n">
-        <v>1467.556487355555</v>
+        <v>1348.610901174414</v>
       </c>
       <c r="Q29" t="n">
-        <v>1722.370384957728</v>
+        <v>1603.424798776587</v>
       </c>
       <c r="R29" t="n">
-        <v>1722.370384957728</v>
+        <v>1700.645757933627</v>
       </c>
       <c r="S29" t="n">
         <v>1722.370384957728</v>
@@ -6552,22 +6552,22 @@
         <v>34.44740769915455</v>
       </c>
       <c r="N30" t="n">
-        <v>34.44740769915455</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="O30" t="n">
-        <v>34.44740769915455</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="P30" t="n">
-        <v>34.44740769915455</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.44740769915455</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="R30" t="n">
-        <v>81.66668593414828</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="S30" t="n">
-        <v>81.66668593414828</v>
+        <v>59.90457275094523</v>
       </c>
       <c r="T30" t="n">
         <v>81.66668593414828</v>
@@ -6622,28 +6622,28 @@
         <v>34.44740769915455</v>
       </c>
       <c r="K31" t="n">
-        <v>99.09461837230754</v>
+        <v>34.45148170589022</v>
       </c>
       <c r="L31" t="n">
-        <v>99.09461837230754</v>
+        <v>34.45148170589022</v>
       </c>
       <c r="M31" t="n">
-        <v>99.09461837230754</v>
+        <v>34.45148170589022</v>
       </c>
       <c r="N31" t="n">
-        <v>99.09461837230754</v>
+        <v>207.3182809166434</v>
       </c>
       <c r="O31" t="n">
-        <v>207.8621709343248</v>
+        <v>207.3182809166434</v>
       </c>
       <c r="P31" t="n">
-        <v>207.8621709343248</v>
+        <v>207.3182809166434</v>
       </c>
       <c r="Q31" t="n">
-        <v>207.8621709343248</v>
+        <v>207.3182809166434</v>
       </c>
       <c r="R31" t="n">
-        <v>207.8621709343248</v>
+        <v>207.3182809166434</v>
       </c>
       <c r="S31" t="n">
         <v>207.8621709343248</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>975.2411681339775</v>
+        <v>975.2411681339781</v>
       </c>
       <c r="C32" t="n">
-        <v>829.7381874012286</v>
+        <v>829.7381874012291</v>
       </c>
       <c r="D32" t="n">
-        <v>694.9320250021407</v>
+        <v>694.9320250021411</v>
       </c>
       <c r="E32" t="n">
-        <v>532.603308611559</v>
+        <v>532.6033086115594</v>
       </c>
       <c r="F32" t="n">
-        <v>345.076940029614</v>
+        <v>345.0769400296144</v>
       </c>
       <c r="G32" t="n">
         <v>149.4704707214771</v>
@@ -6695,31 +6695,31 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I32" t="n">
-        <v>34.44740769915455</v>
+        <v>61.4012303206361</v>
       </c>
       <c r="J32" t="n">
-        <v>34.44740769915455</v>
+        <v>304.4957480179196</v>
       </c>
       <c r="K32" t="n">
-        <v>89.39335993301779</v>
+        <v>680.345658697236</v>
       </c>
       <c r="L32" t="n">
-        <v>515.6800302100554</v>
+        <v>1015.268265832641</v>
       </c>
       <c r="M32" t="n">
-        <v>941.966700487093</v>
+        <v>1080.534028412472</v>
       </c>
       <c r="N32" t="n">
-        <v>1223.319249130116</v>
+        <v>1147.925813324761</v>
       </c>
       <c r="O32" t="n">
-        <v>1594.649682427184</v>
+        <v>1574.212483601798</v>
       </c>
       <c r="P32" t="n">
-        <v>1645.586624626073</v>
+        <v>1625.149425800687</v>
       </c>
       <c r="Q32" t="n">
-        <v>1690.20868147494</v>
+        <v>1625.149425800687</v>
       </c>
       <c r="R32" t="n">
         <v>1722.370384957728</v>
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.44740769915455</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="C33" t="n">
-        <v>34.44740769915455</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="D33" t="n">
-        <v>34.44740769915455</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="E33" t="n">
-        <v>34.44740769915455</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="F33" t="n">
-        <v>34.44740769915455</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="G33" t="n">
-        <v>34.44740769915455</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="H33" t="n">
-        <v>34.44740769915455</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="I33" t="n">
-        <v>34.44740769915455</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="J33" t="n">
-        <v>34.44740769915455</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="K33" t="n">
-        <v>34.44740769915455</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="L33" t="n">
-        <v>34.44740769915455</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="M33" t="n">
-        <v>34.44740769915455</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="N33" t="n">
-        <v>81.66668593414828</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="O33" t="n">
-        <v>81.66668593414828</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="P33" t="n">
-        <v>81.66668593414828</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.66668593414828</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="R33" t="n">
-        <v>81.66668593414828</v>
+        <v>49.83423031675331</v>
       </c>
       <c r="S33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="T33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="U33" t="n">
-        <v>76.91780024377381</v>
+        <v>76.91780024377375</v>
       </c>
       <c r="V33" t="n">
-        <v>65.22522821969365</v>
+        <v>65.22522821969362</v>
       </c>
       <c r="W33" t="n">
         <v>34.44740769915455</v>
@@ -6822,7 +6822,7 @@
         <v>34.44740769915455</v>
       </c>
       <c r="Y33" t="n">
-        <v>34.44740769915455</v>
+        <v>49.83423031675331</v>
       </c>
     </row>
     <row r="34">
@@ -6835,67 +6835,67 @@
         <v>34.44740769915455</v>
       </c>
       <c r="C34" t="n">
-        <v>34.44740769915455</v>
+        <v>87.88574624864307</v>
       </c>
       <c r="D34" t="n">
-        <v>34.44740769915455</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="E34" t="n">
-        <v>34.44740769915455</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="F34" t="n">
-        <v>34.44740769915455</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="G34" t="n">
-        <v>34.44740769915455</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="H34" t="n">
-        <v>34.44740769915455</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="I34" t="n">
-        <v>34.44740769915455</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="J34" t="n">
-        <v>34.44740769915455</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="K34" t="n">
-        <v>34.44740769915455</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="L34" t="n">
-        <v>34.44740769915455</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="M34" t="n">
-        <v>34.44740769915455</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="N34" t="n">
-        <v>99.09461837230754</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="O34" t="n">
-        <v>207.8621709343248</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="P34" t="n">
-        <v>207.8621709343248</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="Q34" t="n">
-        <v>207.8621709343248</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="R34" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="S34" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="T34" t="n">
-        <v>201.9010500538238</v>
+        <v>201.9010500538237</v>
       </c>
       <c r="U34" t="n">
-        <v>136.1600082170318</v>
+        <v>136.1600082170317</v>
       </c>
       <c r="V34" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W34" t="n">
-        <v>38.97742238950935</v>
+        <v>38.97742238950932</v>
       </c>
       <c r="X34" t="n">
         <v>34.44740769915455</v>
@@ -6914,10 +6914,10 @@
         <v>827.5379026594851</v>
       </c>
       <c r="C35" t="n">
-        <v>705.6867520190568</v>
+        <v>705.6867520190567</v>
       </c>
       <c r="D35" t="n">
-        <v>594.5324197122897</v>
+        <v>594.5324197122895</v>
       </c>
       <c r="E35" t="n">
         <v>455.8555334140287</v>
@@ -6932,34 +6932,34 @@
         <v>28.6551227785862</v>
       </c>
       <c r="I35" t="n">
-        <v>28.6551227785862</v>
+        <v>78.79010407355133</v>
       </c>
       <c r="J35" t="n">
-        <v>294.9307991493533</v>
+        <v>177.6601314239654</v>
       </c>
       <c r="K35" t="n">
-        <v>373.0579100567001</v>
+        <v>255.7872423313123</v>
       </c>
       <c r="L35" t="n">
-        <v>727.6650544417043</v>
+        <v>331.3435565447319</v>
       </c>
       <c r="M35" t="n">
-        <v>816.1119756950197</v>
+        <v>564.8819622024618</v>
       </c>
       <c r="N35" t="n">
-        <v>1170.719120080024</v>
+        <v>655.4549057882336</v>
       </c>
       <c r="O35" t="n">
-        <v>1256.4063863745</v>
+        <v>1010.062050173238</v>
       </c>
       <c r="P35" t="n">
-        <v>1286.428902577205</v>
+        <v>1364.669194558242</v>
       </c>
       <c r="Q35" t="n">
-        <v>1354.232118099555</v>
+        <v>1364.669194558242</v>
       </c>
       <c r="R35" t="n">
-        <v>1409.574980255826</v>
+        <v>1364.669194558242</v>
       </c>
       <c r="S35" t="n">
         <v>1409.574980255826</v>
@@ -7002,37 +7002,37 @@
         <v>28.6551227785862</v>
       </c>
       <c r="F36" t="n">
-        <v>35.7811132068045</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="G36" t="n">
-        <v>35.7811132068045</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="H36" t="n">
-        <v>35.7811132068045</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="I36" t="n">
-        <v>35.7811132068045</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="J36" t="n">
-        <v>35.7811132068045</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="K36" t="n">
-        <v>35.7811132068045</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="L36" t="n">
-        <v>35.7811132068045</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="M36" t="n">
-        <v>35.7811132068045</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="N36" t="n">
-        <v>35.7811132068045</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="O36" t="n">
-        <v>35.7811132068045</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="P36" t="n">
-        <v>35.7811132068045</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="Q36" t="n">
         <v>35.7811132068045</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="C37" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="D37" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="E37" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="F37" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="G37" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="H37" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="I37" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="J37" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="K37" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="L37" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="M37" t="n">
-        <v>28.6551227785862</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="N37" t="n">
         <v>120.6232601659383</v>
@@ -7135,10 +7135,10 @@
         <v>28.6551227785862</v>
       </c>
       <c r="X37" t="n">
-        <v>28.6551227785862</v>
+        <v>30.66802714340275</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.6551227785862</v>
+        <v>56.46307043544256</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>28.65512277858622</v>
       </c>
       <c r="I38" t="n">
-        <v>78.79010407355133</v>
+        <v>78.79010407355135</v>
       </c>
       <c r="J38" t="n">
-        <v>345.0657804443184</v>
+        <v>177.6601314239654</v>
       </c>
       <c r="K38" t="n">
-        <v>533.368749111092</v>
+        <v>255.7872423313123</v>
       </c>
       <c r="L38" t="n">
-        <v>727.1106053277686</v>
+        <v>610.3943867163167</v>
       </c>
       <c r="M38" t="n">
-        <v>727.1106053277686</v>
+        <v>698.8413079696321</v>
       </c>
       <c r="N38" t="n">
-        <v>1081.717749712773</v>
+        <v>789.414251555404</v>
       </c>
       <c r="O38" t="n">
-        <v>1167.405016007249</v>
+        <v>875.1015178498797</v>
       </c>
       <c r="P38" t="n">
-        <v>1241.523116879621</v>
+        <v>1229.708662234884</v>
       </c>
       <c r="Q38" t="n">
-        <v>1309.326332401972</v>
+        <v>1297.511877757234</v>
       </c>
       <c r="R38" t="n">
         <v>1364.669194558243</v>
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="C39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="D39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="E39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="F39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="G39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="H39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="I39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="J39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="K39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="L39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="M39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="N39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="O39" t="n">
         <v>35.78111320680452</v>
@@ -7296,7 +7296,7 @@
         <v>28.65512277858622</v>
       </c>
       <c r="Y39" t="n">
-        <v>35.78111320680452</v>
+        <v>28.65512277858622</v>
       </c>
     </row>
     <row r="40">
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.65512277858622</v>
+        <v>92.81531250908195</v>
       </c>
       <c r="C40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="D40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="E40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="F40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="G40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="H40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="I40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="J40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="K40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="L40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="M40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="O40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="P40" t="n">
-        <v>28.65512277858622</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.6232601659383</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="R40" t="n">
-        <v>120.6232601659383</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="S40" t="n">
-        <v>120.6232601659383</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="T40" t="n">
         <v>120.6232601659383</v>
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>827.5379026594849</v>
+        <v>827.5379026594854</v>
       </c>
       <c r="C41" t="n">
-        <v>705.6867520190564</v>
+        <v>705.6867520190572</v>
       </c>
       <c r="D41" t="n">
-        <v>594.5324197122893</v>
+        <v>594.5324197122902</v>
       </c>
       <c r="E41" t="n">
-        <v>455.8555334140285</v>
+        <v>455.8555334140297</v>
       </c>
       <c r="F41" t="n">
-        <v>291.9809949244046</v>
+        <v>291.9809949244054</v>
       </c>
       <c r="G41" t="n">
-        <v>120.0263557085881</v>
+        <v>120.026355708588</v>
       </c>
       <c r="H41" t="n">
         <v>28.65512277858622</v>
       </c>
       <c r="I41" t="n">
-        <v>28.65512277858622</v>
+        <v>78.79010407355135</v>
       </c>
       <c r="J41" t="n">
-        <v>36.09664662357674</v>
+        <v>177.6601314239654</v>
       </c>
       <c r="K41" t="n">
-        <v>114.2237575309235</v>
+        <v>532.2672758089699</v>
       </c>
       <c r="L41" t="n">
-        <v>189.780071744343</v>
+        <v>532.2672758089699</v>
       </c>
       <c r="M41" t="n">
-        <v>544.3872161293475</v>
+        <v>886.8744201939744</v>
       </c>
       <c r="N41" t="n">
-        <v>898.9943605143519</v>
+        <v>977.4473637797463</v>
       </c>
       <c r="O41" t="n">
-        <v>1235.491960378317</v>
+        <v>977.4473637797463</v>
       </c>
       <c r="P41" t="n">
-        <v>1309.610061250689</v>
+        <v>1051.565464652119</v>
       </c>
       <c r="Q41" t="n">
-        <v>1377.41327677304</v>
+        <v>1309.326332401972</v>
       </c>
       <c r="R41" t="n">
-        <v>1432.756138929311</v>
+        <v>1364.669194558243</v>
       </c>
       <c r="S41" t="n">
-        <v>1432.756138929311</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T41" t="n">
         <v>1432.756138929311</v>
@@ -7445,16 +7445,16 @@
         <v>1426.017544074267</v>
       </c>
       <c r="V41" t="n">
-        <v>1342.066023030679</v>
+        <v>1342.06602303068</v>
       </c>
       <c r="W41" t="n">
-        <v>1236.408734060548</v>
+        <v>1236.408734060549</v>
       </c>
       <c r="X41" t="n">
         <v>1110.054342099452</v>
       </c>
       <c r="Y41" t="n">
-        <v>967.0263764236234</v>
+        <v>967.0263764236239</v>
       </c>
     </row>
     <row r="42">
@@ -7494,37 +7494,37 @@
         <v>28.65512277858622</v>
       </c>
       <c r="L42" t="n">
-        <v>28.65512277858622</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="M42" t="n">
-        <v>28.65512277858622</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="N42" t="n">
-        <v>28.65512277858622</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="O42" t="n">
-        <v>28.65512277858622</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="P42" t="n">
-        <v>28.65512277858622</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.65512277858622</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="R42" t="n">
-        <v>28.65512277858622</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="S42" t="n">
-        <v>28.65512277858622</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="T42" t="n">
-        <v>35.7811132068046</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="U42" t="n">
-        <v>35.7811132068046</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="V42" t="n">
-        <v>35.7811132068046</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="W42" t="n">
         <v>28.65512277858622</v>
@@ -7576,34 +7576,34 @@
         <v>28.65512277858622</v>
       </c>
       <c r="M43" t="n">
-        <v>28.65512277858622</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65512277858622</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="O43" t="n">
-        <v>28.65512277858622</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="P43" t="n">
-        <v>96.89821147477359</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.89821147477359</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="R43" t="n">
-        <v>96.89821147477359</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="S43" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="T43" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="U43" t="n">
-        <v>78.53404842146722</v>
+        <v>78.53404842146705</v>
       </c>
       <c r="V43" t="n">
-        <v>70.96092651556359</v>
+        <v>70.9609265155635</v>
       </c>
       <c r="W43" t="n">
         <v>28.65512277858622</v>
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>827.5379026594857</v>
+        <v>827.5379026594861</v>
       </c>
       <c r="C44" t="n">
-        <v>705.6867520190572</v>
+        <v>705.6867520190578</v>
       </c>
       <c r="D44" t="n">
-        <v>594.53241971229</v>
+        <v>594.5324197122907</v>
       </c>
       <c r="E44" t="n">
-        <v>455.8555334140289</v>
+        <v>455.8555334140297</v>
       </c>
       <c r="F44" t="n">
-        <v>291.9809949244045</v>
+        <v>291.9809949244054</v>
       </c>
       <c r="G44" t="n">
-        <v>120.0263557085881</v>
+        <v>120.026355708588</v>
       </c>
       <c r="H44" t="n">
         <v>28.65512277858622</v>
       </c>
       <c r="I44" t="n">
-        <v>28.65512277858622</v>
+        <v>78.79010407355135</v>
       </c>
       <c r="J44" t="n">
-        <v>127.5251501290002</v>
+        <v>177.6601314239654</v>
       </c>
       <c r="K44" t="n">
-        <v>205.6522610363469</v>
+        <v>532.2672758089699</v>
       </c>
       <c r="L44" t="n">
-        <v>513.5335893935116</v>
+        <v>560.4063997675489</v>
       </c>
       <c r="M44" t="n">
-        <v>868.1407337785161</v>
+        <v>648.8533210208643</v>
       </c>
       <c r="N44" t="n">
-        <v>868.1407337785161</v>
+        <v>648.8533210208643</v>
       </c>
       <c r="O44" t="n">
-        <v>1222.74787816352</v>
+        <v>1003.460465405869</v>
       </c>
       <c r="P44" t="n">
-        <v>1296.865979035893</v>
+        <v>1077.578566278241</v>
       </c>
       <c r="Q44" t="n">
-        <v>1364.669194558243</v>
+        <v>1309.326332401972</v>
       </c>
       <c r="R44" t="n">
         <v>1364.669194558243</v>
       </c>
       <c r="S44" t="n">
-        <v>1409.574980255828</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T44" t="n">
         <v>1432.756138929311</v>
@@ -7691,7 +7691,7 @@
         <v>1110.054342099453</v>
       </c>
       <c r="Y44" t="n">
-        <v>967.0263764236242</v>
+        <v>967.0263764236246</v>
       </c>
     </row>
     <row r="45">
@@ -7704,64 +7704,64 @@
         <v>28.65512277858622</v>
       </c>
       <c r="C45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="D45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="E45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="F45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="G45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="H45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="I45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="J45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="K45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="L45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="M45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="N45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="O45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="P45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="R45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="S45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="T45" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="U45" t="n">
-        <v>35.7811132068046</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="V45" t="n">
-        <v>35.7811132068046</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="W45" t="n">
         <v>28.65512277858622</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.65512277858622</v>
+        <v>73.1914573460929</v>
       </c>
       <c r="C46" t="n">
-        <v>28.65512277858622</v>
+        <v>73.1914573460929</v>
       </c>
       <c r="D46" t="n">
-        <v>28.65512277858622</v>
+        <v>73.1914573460929</v>
       </c>
       <c r="E46" t="n">
-        <v>28.65512277858622</v>
+        <v>73.1914573460929</v>
       </c>
       <c r="F46" t="n">
-        <v>28.65512277858622</v>
+        <v>73.1914573460929</v>
       </c>
       <c r="G46" t="n">
-        <v>28.65512277858622</v>
+        <v>73.1914573460929</v>
       </c>
       <c r="H46" t="n">
-        <v>28.65512277858622</v>
+        <v>79.55954737626867</v>
       </c>
       <c r="I46" t="n">
-        <v>28.65512277858622</v>
+        <v>79.55954737626867</v>
       </c>
       <c r="J46" t="n">
-        <v>28.65512277858622</v>
+        <v>79.55954737626867</v>
       </c>
       <c r="K46" t="n">
-        <v>28.65512277858622</v>
+        <v>79.55954737626867</v>
       </c>
       <c r="L46" t="n">
-        <v>28.65512277858622</v>
+        <v>79.55954737626867</v>
       </c>
       <c r="M46" t="n">
-        <v>28.65512277858622</v>
+        <v>79.55954737626867</v>
       </c>
       <c r="N46" t="n">
-        <v>120.6232601659386</v>
+        <v>79.55954737626867</v>
       </c>
       <c r="O46" t="n">
-        <v>120.6232601659386</v>
+        <v>79.55954737626867</v>
       </c>
       <c r="P46" t="n">
-        <v>120.6232601659386</v>
+        <v>79.55954737626867</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.6232601659386</v>
+        <v>79.55954737626867</v>
       </c>
       <c r="R46" t="n">
-        <v>120.6232601659386</v>
+        <v>79.55954737626867</v>
       </c>
       <c r="S46" t="n">
-        <v>120.6232601659386</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="T46" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="U46" t="n">
-        <v>78.53404842146722</v>
+        <v>78.53404842146705</v>
       </c>
       <c r="V46" t="n">
-        <v>70.96092651556359</v>
+        <v>70.9609265155635</v>
       </c>
       <c r="W46" t="n">
         <v>28.65512277858622</v>
       </c>
       <c r="X46" t="n">
-        <v>28.65512277858622</v>
+        <v>47.3964140540531</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.65512277858622</v>
+        <v>73.1914573460929</v>
       </c>
     </row>
   </sheetData>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>19.71320558170639</v>
+        <v>71.88432032206441</v>
       </c>
       <c r="M11" t="n">
-        <v>155.2999281386852</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>225.5559923402781</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>169.7734840790313</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.89134323765262</v>
+        <v>176.1521561497609</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>130.5789184920559</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>165.7239789931988</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>155.2999281386852</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>11.43655551079152</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>158.0874584001395</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>28.05760875664932</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>62.86702376654137</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>47.02249634867062</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.7916225242057</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>47.95019098964623</v>
+        <v>165.7239789931988</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>242.7681647841969</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>362.5200862270196</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>207.2955286655791</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.152156149761</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P27" t="n">
-        <v>90.30752936669641</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L28" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>108.8738430064008</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>47.0241150010594</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>364.6675835325312</v>
+        <v>390.9682364303857</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>367.4551137939855</v>
+        <v>8.857153462662069</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10185,34 +10185,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>97.58148759330669</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,19 +10267,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>106.3821278759461</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M31" t="n">
         <v>108.8738430064008</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>144.7715381416158</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>377.6883987243451</v>
+        <v>285.401466258049</v>
       </c>
       <c r="M32" t="n">
-        <v>364.6675835325312</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>311.9437633091685</v>
+        <v>367.4551137939854</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>176.1521561497609</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L33" t="n">
-        <v>29.78338019170383</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>71.86717946018479</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>23.40914311940782</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.7916225242057</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10507,22 +10507,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3821278759461</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>108.8738430064008</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>98.34817151022007</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>281.8695254258431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>146.5570549539539</v>
       </c>
       <c r="N35" t="n">
-        <v>266.7012129285176</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>271.6362404954834</v>
       </c>
       <c r="P35" t="n">
-        <v>194.4815068256847</v>
+        <v>283.3222661743754</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>79.15857413487699</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>119.3793353568252</v>
+        <v>281.8695254258432</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>266.7012129285179</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>283.3222661743756</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>11.93379257044156</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,13 +10902,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>4.820707709401042</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.7916225242057</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10981,16 +10981,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M40" t="n">
         <v>108.8738430064008</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>98.34817151022007</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>279.272761088543</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>268.8487102340295</v>
+        <v>268.8487102340293</v>
       </c>
       <c r="N41" t="n">
-        <v>266.7012129285179</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>253.3437712823126</v>
+        <v>71.35409680081659</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>191.8764163914165</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>88.90283864918115</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11215,22 +11215,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11297,25 +11297,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>279.272761088543</v>
       </c>
       <c r="L44" t="n">
-        <v>234.6717314583285</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>340.9395906448389</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>271.6362404954838</v>
+        <v>271.6362404954837</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>165.6005561630099</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11382,19 +11382,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>71.86717946018479</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.7916225242057</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11458,10 +11458,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>108.8738430064008</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.21084332688957</v>
+        <v>168.614404833994</v>
       </c>
       <c r="C11" t="n">
         <v>151.153454941521</v>
       </c>
       <c r="D11" t="n">
-        <v>140.5636047911964</v>
+        <v>68.16004328409196</v>
       </c>
       <c r="E11" t="n">
         <v>167.8109332427752</v>
@@ -23273,7 +23273,7 @@
         <v>200.755908631155</v>
       </c>
       <c r="H11" t="n">
-        <v>120.9783364081987</v>
+        <v>48.57477490109424</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.105504016099371</v>
+        <v>7.105504016099369</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>37.19202471399046</v>
       </c>
       <c r="V11" t="n">
-        <v>41.2292601335439</v>
+        <v>113.6328216406484</v>
       </c>
       <c r="W11" t="n">
-        <v>108.5404996264593</v>
+        <v>62.71797038082201</v>
       </c>
       <c r="X11" t="n">
-        <v>83.20810234187806</v>
+        <v>155.6116638489825</v>
       </c>
       <c r="Y11" t="n">
-        <v>172.118501826567</v>
+        <v>108.3454448511094</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.21084332688957</v>
+        <v>168.614404833994</v>
       </c>
       <c r="C14" t="n">
-        <v>151.153454941521</v>
+        <v>131.6779266961533</v>
       </c>
       <c r="D14" t="n">
         <v>140.5636047911964</v>
       </c>
       <c r="E14" t="n">
-        <v>167.8109332427752</v>
+        <v>95.40737173567075</v>
       </c>
       <c r="F14" t="n">
-        <v>120.3530474051204</v>
+        <v>192.7566089122249</v>
       </c>
       <c r="G14" t="n">
-        <v>136.9828516556974</v>
+        <v>200.7559086311549</v>
       </c>
       <c r="H14" t="n">
-        <v>48.57477490109426</v>
+        <v>48.57477490109422</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.105504016099371</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>37.19202471399046</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>113.6328216406484</v>
+        <v>113.6328216406483</v>
       </c>
       <c r="W14" t="n">
-        <v>135.1215318879265</v>
+        <v>135.1215318879264</v>
       </c>
       <c r="X14" t="n">
-        <v>155.6116638489825</v>
+        <v>83.208102341878</v>
       </c>
       <c r="Y14" t="n">
         <v>172.118501826567</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.730349362740526e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-8.171241461241152e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184337.1762113336</v>
+        <v>184337.1762113337</v>
       </c>
       <c r="C2" t="n">
         <v>184337.1762113336</v>
       </c>
       <c r="D2" t="n">
-        <v>184337.1762113336</v>
+        <v>184337.1762113337</v>
       </c>
       <c r="E2" t="n">
+        <v>158184.0490121285</v>
+      </c>
+      <c r="F2" t="n">
         <v>158184.0490121284</v>
-      </c>
-      <c r="F2" t="n">
-        <v>158184.0490121285</v>
       </c>
       <c r="G2" t="n">
         <v>184734.3982194637</v>
       </c>
       <c r="H2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="I2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="J2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="K2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="L2" t="n">
         <v>184734.3982194636</v>
-      </c>
-      <c r="L2" t="n">
-        <v>184734.3982194637</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194637</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194638</v>
       </c>
     </row>
     <row r="3">
@@ -26396,13 +26396,13 @@
         <v>106979.8107928508</v>
       </c>
       <c r="M3" t="n">
-        <v>18732.24943311807</v>
+        <v>18732.24943311805</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>70000.14188361783</v>
+        <v>70000.14188361792</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,16 +26427,16 @@
         <v>366684.410336468</v>
       </c>
       <c r="F4" t="n">
-        <v>366684.4103364679</v>
+        <v>366684.410336468</v>
       </c>
       <c r="G4" t="n">
-        <v>431842.1671902813</v>
+        <v>431842.1671902812</v>
       </c>
       <c r="H4" t="n">
-        <v>431842.1671902813</v>
+        <v>431842.1671902812</v>
       </c>
       <c r="I4" t="n">
-        <v>431842.1671902813</v>
+        <v>431842.1671902812</v>
       </c>
       <c r="J4" t="n">
         <v>440899.9009590467</v>
@@ -26448,10 +26448,10 @@
         <v>440899.9009590467</v>
       </c>
       <c r="M4" t="n">
-        <v>436970.659685421</v>
+        <v>436970.6596854209</v>
       </c>
       <c r="N4" t="n">
-        <v>436970.659685421</v>
+        <v>436970.6596854209</v>
       </c>
       <c r="O4" t="n">
         <v>436970.6596854209</v>
@@ -26479,16 +26479,16 @@
         <v>24720.58373795486</v>
       </c>
       <c r="F5" t="n">
-        <v>24720.58373795486</v>
+        <v>24720.58373795487</v>
       </c>
       <c r="G5" t="n">
-        <v>35962.69087988509</v>
+        <v>35962.69087988508</v>
       </c>
       <c r="H5" t="n">
-        <v>35962.69087988509</v>
+        <v>35962.69087988508</v>
       </c>
       <c r="I5" t="n">
-        <v>35962.69087988509</v>
+        <v>35962.69087988508</v>
       </c>
       <c r="J5" t="n">
         <v>47095.82966680983</v>
@@ -26506,10 +26506,10 @@
         <v>44662.1949741689</v>
       </c>
       <c r="O5" t="n">
-        <v>44662.19497416889</v>
+        <v>44662.1949741689</v>
       </c>
       <c r="P5" t="n">
-        <v>44662.19497416889</v>
+        <v>44662.1949741689</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316906.3837203976</v>
+        <v>-316910.7972982657</v>
       </c>
       <c r="C6" t="n">
-        <v>-316906.3837203976</v>
+        <v>-316910.7972982657</v>
       </c>
       <c r="D6" t="n">
-        <v>-316906.3837203976</v>
+        <v>-316910.7972982657</v>
       </c>
       <c r="E6" t="n">
-        <v>-511547.4097291735</v>
+        <v>-511842.413609255</v>
       </c>
       <c r="F6" t="n">
-        <v>-233220.9450622943</v>
+        <v>-233515.9489423759</v>
       </c>
       <c r="G6" t="n">
-        <v>-390050.2706435535</v>
+        <v>-390050.2706435533</v>
       </c>
       <c r="H6" t="n">
-        <v>-283070.4598507027</v>
+        <v>-283070.4598507025</v>
       </c>
       <c r="I6" t="n">
-        <v>-283070.4598507027</v>
+        <v>-283070.4598507026</v>
       </c>
       <c r="J6" t="n">
-        <v>-466979.4860935158</v>
+        <v>-466979.4860935159</v>
       </c>
       <c r="K6" t="n">
         <v>-303261.3324063928</v>
       </c>
       <c r="L6" t="n">
-        <v>-410241.1431992436</v>
+        <v>-410241.1431992437</v>
       </c>
       <c r="M6" t="n">
-        <v>-315630.7058732443</v>
+        <v>-315630.7058732441</v>
       </c>
       <c r="N6" t="n">
         <v>-296898.4564401262</v>
       </c>
       <c r="O6" t="n">
-        <v>-366898.598323744</v>
+        <v>-366898.5983237441</v>
       </c>
       <c r="P6" t="n">
-        <v>-296898.4564401262</v>
+        <v>-296898.4564401261</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>214.1194368294865</v>
       </c>
       <c r="F2" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="G2" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="I2" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="J2" t="n">
         <v>221.2249408455859</v>
@@ -26722,10 +26722,10 @@
         <v>244.6402526369835</v>
       </c>
       <c r="O2" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="P2" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552664</v>
       </c>
       <c r="F3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552664</v>
       </c>
       <c r="G3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552664</v>
       </c>
       <c r="H3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552664</v>
       </c>
       <c r="I3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552664</v>
       </c>
       <c r="J3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552664</v>
       </c>
       <c r="K3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552664</v>
       </c>
       <c r="L3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552664</v>
       </c>
       <c r="M3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552664</v>
       </c>
       <c r="N3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552664</v>
       </c>
       <c r="O3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552664</v>
       </c>
       <c r="P3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552664</v>
       </c>
     </row>
     <row r="4">
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>133.7247634910636</v>
+        <v>133.7247634910635</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.50017735452238</v>
+        <v>87.50017735452241</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910636</v>
+        <v>133.7247634910635</v>
       </c>
       <c r="M2" t="n">
-        <v>23.41531179139758</v>
+        <v>23.41531179139756</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452229</v>
+        <v>87.50017735452241</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552664</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910636</v>
+        <v>133.7247634910635</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452238</v>
+        <v>87.50017735452241</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28108,37 +28108,37 @@
         <v>214.1194368294865</v>
       </c>
       <c r="I11" t="n">
-        <v>193.998857389544</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="J11" t="n">
-        <v>144.7715381416158</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="K11" t="n">
+        <v>207.8732345056787</v>
+      </c>
+      <c r="L11" t="n">
+        <v>96.43642300843456</v>
+      </c>
+      <c r="M11" t="n">
         <v>214.1194368294865</v>
       </c>
-      <c r="L11" t="n">
-        <v>214.1194368294865</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>153.1524308331735</v>
       </c>
       <c r="O11" t="n">
         <v>214.1194368294865</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>214.1194368294865</v>
       </c>
-      <c r="Q11" t="n">
-        <v>93.26081291210835</v>
-      </c>
-      <c r="R11" t="n">
-        <v>188.7383716710527</v>
-      </c>
       <c r="S11" t="n">
-        <v>199.280873144474</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="T11" t="n">
         <v>214.1194368294865</v>
@@ -28184,10 +28184,10 @@
         <v>137.114842254054</v>
       </c>
       <c r="H12" t="n">
-        <v>110.026926034905</v>
+        <v>132.788688396786</v>
       </c>
       <c r="I12" t="n">
-        <v>91.64914299614301</v>
+        <v>91.649142996143</v>
       </c>
       <c r="J12" t="n">
         <v>105.2328625520064</v>
@@ -28196,19 +28196,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L12" t="n">
-        <v>88.90283864918115</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M12" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N12" t="n">
-        <v>71.86717946018483</v>
+        <v>71.86717946018479</v>
       </c>
       <c r="O12" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P12" t="n">
-        <v>159.7530935957974</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q12" t="n">
         <v>110.7916225242057</v>
@@ -28217,7 +28217,7 @@
         <v>131.4816003936965</v>
       </c>
       <c r="S12" t="n">
-        <v>167.4356349622666</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="T12" t="n">
         <v>199.2430083373</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -28254,7 +28254,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>214.1194368294865</v>
+        <v>189.9997976014614</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -28263,28 +28263,28 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H13" t="n">
-        <v>214.1194368294865</v>
+        <v>160.5226664330617</v>
       </c>
       <c r="I13" t="n">
         <v>149.6851312728186</v>
       </c>
       <c r="J13" t="n">
-        <v>113.4412867354731</v>
+        <v>185.8448482425775</v>
       </c>
       <c r="K13" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L13" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>108.8738430064008</v>
       </c>
       <c r="N13" t="n">
-        <v>98.34817151022008</v>
+        <v>98.34817151022007</v>
       </c>
       <c r="O13" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>114.5411443216187</v>
@@ -28293,7 +28293,7 @@
         <v>207.8551833297051</v>
       </c>
       <c r="R13" t="n">
-        <v>197.6478700056626</v>
+        <v>168.6732614754589</v>
       </c>
       <c r="S13" t="n">
         <v>214.1194368294865</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="C14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="D14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="E14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="F14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="G14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="H14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="I14" t="n">
-        <v>193.998857389544</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="J14" t="n">
-        <v>14.19261964955984</v>
+        <v>163.4475024943082</v>
       </c>
       <c r="K14" t="n">
-        <v>183.6201025607187</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="N14" t="n">
-        <v>214.1194368294865</v>
+        <v>153.1524308331735</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="P14" t="n">
-        <v>214.1194368294865</v>
+        <v>169.7734840790313</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.1194368294865</v>
+        <v>113.2851323832196</v>
       </c>
       <c r="R14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="S14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="T14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="U14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="V14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="W14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="X14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="Y14" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -28424,31 +28424,31 @@
         <v>110.026926034905</v>
       </c>
       <c r="I15" t="n">
-        <v>91.64914299614301</v>
+        <v>91.649142996143</v>
       </c>
       <c r="J15" t="n">
         <v>105.2328625520064</v>
       </c>
       <c r="K15" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>88.90283864918115</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M15" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N15" t="n">
-        <v>71.86717946018483</v>
+        <v>71.86717946018479</v>
       </c>
       <c r="O15" t="n">
-        <v>157.634230616446</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>90.30752936669641</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.7916225242057</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>131.4816003936965</v>
@@ -28457,22 +28457,22 @@
         <v>167.4356349622666</v>
       </c>
       <c r="T15" t="n">
-        <v>199.2430083373</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="U15" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="V15" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="W15" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>210.4944420470387</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>214.1194368294865</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -28491,7 +28491,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -28509,22 +28509,22 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K16" t="n">
-        <v>150.3054861412259</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L16" t="n">
-        <v>106.3821278759461</v>
+        <v>178.7856893830505</v>
       </c>
       <c r="M16" t="n">
-        <v>108.8738430064008</v>
+        <v>181.2774045135053</v>
       </c>
       <c r="N16" t="n">
-        <v>98.34817151022008</v>
+        <v>98.34817151022007</v>
       </c>
       <c r="O16" t="n">
-        <v>183.762287643582</v>
+        <v>121.5265435560014</v>
       </c>
       <c r="P16" t="n">
-        <v>186.9447058287232</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q16" t="n">
         <v>135.4516218226006</v>
@@ -28533,25 +28533,25 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S16" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="T16" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="U16" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="V16" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="W16" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="X16" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.1194368294865</v>
+        <v>214.1194368294866</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="C17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="D17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="E17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="F17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="G17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="H17" t="n">
         <v>335.0977732376853</v>
       </c>
       <c r="I17" t="n">
-        <v>193.998857389544</v>
+        <v>263.477022472119</v>
       </c>
       <c r="J17" t="n">
-        <v>144.7715381416158</v>
+        <v>217.1750996487202</v>
       </c>
       <c r="K17" t="n">
-        <v>235.2021440757738</v>
+        <v>165.7239789931988</v>
       </c>
       <c r="L17" t="n">
         <v>168.320743330499</v>
       </c>
       <c r="M17" t="n">
-        <v>227.7034896457896</v>
+        <v>155.2999281386851</v>
       </c>
       <c r="N17" t="n">
-        <v>225.5559923402781</v>
+        <v>153.1524308331735</v>
       </c>
       <c r="O17" t="n">
-        <v>158.0874584001395</v>
+        <v>158.0874584001394</v>
       </c>
       <c r="P17" t="n">
-        <v>169.7734840790314</v>
+        <v>169.7734840790313</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.152156149761</v>
+        <v>176.1521561497609</v>
       </c>
       <c r="R17" t="n">
-        <v>261.1419331781572</v>
+        <v>188.7383716710527</v>
       </c>
       <c r="S17" t="n">
         <v>199.280873144474</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2249408455859</v>
+        <v>293.6285023526904</v>
       </c>
       <c r="U17" t="n">
-        <v>251.311461543477</v>
+        <v>323.7150230505815</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="X17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="Y17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I18" t="n">
-        <v>91.64914299614301</v>
+        <v>91.649142996143</v>
       </c>
       <c r="J18" t="n">
         <v>105.2328625520064</v>
@@ -28670,19 +28670,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L18" t="n">
-        <v>88.90283864918115</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M18" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N18" t="n">
-        <v>71.86717946018483</v>
+        <v>71.86717946018479</v>
       </c>
       <c r="O18" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P18" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q18" t="n">
         <v>110.7916225242057</v>
@@ -28749,13 +28749,13 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L19" t="n">
-        <v>106.3821278759461</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M19" t="n">
         <v>108.8738430064008</v>
       </c>
       <c r="N19" t="n">
-        <v>98.34817151022008</v>
+        <v>98.34817151022007</v>
       </c>
       <c r="O19" t="n">
         <v>111.3587261364775</v>
@@ -28798,22 +28798,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="C20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="D20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="E20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="F20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="G20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="H20" t="n">
         <v>335.0977732376853</v>
@@ -28825,49 +28825,49 @@
         <v>144.7715381416158</v>
       </c>
       <c r="K20" t="n">
-        <v>165.7239789931988</v>
+        <v>235.2021440757737</v>
       </c>
       <c r="L20" t="n">
         <v>168.320743330499</v>
       </c>
       <c r="M20" t="n">
-        <v>155.2999281386852</v>
+        <v>155.2999281386851</v>
       </c>
       <c r="N20" t="n">
-        <v>153.1524308331736</v>
+        <v>153.1524308331735</v>
       </c>
       <c r="O20" t="n">
-        <v>230.4910199072439</v>
+        <v>158.0874584001394</v>
       </c>
       <c r="P20" t="n">
-        <v>242.1770455861358</v>
+        <v>169.7734840790313</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.152156149761</v>
+        <v>248.5557176568654</v>
       </c>
       <c r="R20" t="n">
-        <v>238.1245949032125</v>
+        <v>261.1419331781572</v>
       </c>
       <c r="S20" t="n">
         <v>199.280873144474</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2249408455859</v>
+        <v>293.6285023526904</v>
       </c>
       <c r="U20" t="n">
-        <v>323.7150230505815</v>
+        <v>251.311461543477</v>
       </c>
       <c r="V20" t="n">
-        <v>347.8442003205501</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="X20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="Y20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I21" t="n">
-        <v>91.64914299614301</v>
+        <v>91.649142996143</v>
       </c>
       <c r="J21" t="n">
         <v>105.2328625520064</v>
@@ -28907,19 +28907,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L21" t="n">
-        <v>88.90283864918115</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M21" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N21" t="n">
-        <v>71.86717946018483</v>
+        <v>71.86717946018479</v>
       </c>
       <c r="O21" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P21" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q21" t="n">
         <v>110.7916225242057</v>
@@ -28986,13 +28986,13 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L22" t="n">
-        <v>106.3821278759461</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M22" t="n">
         <v>108.8738430064008</v>
       </c>
       <c r="N22" t="n">
-        <v>98.34817151022008</v>
+        <v>98.34817151022007</v>
       </c>
       <c r="O22" t="n">
         <v>111.3587261364775</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="C23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="D23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="E23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="F23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="G23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="H23" t="n">
-        <v>335.0977732376853</v>
+        <v>347.84420032055</v>
       </c>
       <c r="I23" t="n">
-        <v>193.998857389544</v>
+        <v>266.4024188966484</v>
       </c>
       <c r="J23" t="n">
         <v>217.1750996487202</v>
@@ -29068,43 +29068,43 @@
         <v>168.320743330499</v>
       </c>
       <c r="M23" t="n">
-        <v>227.7034896457896</v>
+        <v>155.2999281386851</v>
       </c>
       <c r="N23" t="n">
-        <v>222.6305959157486</v>
+        <v>153.1524308331735</v>
       </c>
       <c r="O23" t="n">
-        <v>158.0874584001395</v>
+        <v>158.0874584001394</v>
       </c>
       <c r="P23" t="n">
-        <v>169.7734840790314</v>
+        <v>169.7734840790313</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.152156149761</v>
+        <v>212.791952299056</v>
       </c>
       <c r="R23" t="n">
         <v>188.7383716710527</v>
       </c>
       <c r="S23" t="n">
-        <v>271.6844346515784</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2249408455859</v>
+        <v>293.6285023526904</v>
       </c>
       <c r="U23" t="n">
         <v>251.311461543477</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>347.84420032055</v>
       </c>
       <c r="W23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="X23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="Y23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I24" t="n">
-        <v>91.64914299614301</v>
+        <v>91.649142996143</v>
       </c>
       <c r="J24" t="n">
         <v>105.2328625520064</v>
@@ -29144,19 +29144,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L24" t="n">
-        <v>88.90283864918115</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M24" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N24" t="n">
-        <v>71.86717946018483</v>
+        <v>71.86717946018479</v>
       </c>
       <c r="O24" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P24" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q24" t="n">
         <v>110.7916225242057</v>
@@ -29223,13 +29223,13 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L25" t="n">
-        <v>106.3821278759461</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M25" t="n">
         <v>108.8738430064008</v>
       </c>
       <c r="N25" t="n">
-        <v>98.34817151022008</v>
+        <v>98.34817151022007</v>
       </c>
       <c r="O25" t="n">
         <v>111.3587261364775</v>
@@ -29293,37 +29293,37 @@
         <v>221.2249408455859</v>
       </c>
       <c r="I26" t="n">
-        <v>193.998857389544</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="J26" t="n">
-        <v>221.2249408455859</v>
+        <v>217.0132227800226</v>
       </c>
       <c r="K26" t="n">
-        <v>117.7737880035526</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="M26" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="O26" t="n">
-        <v>207.8798733768261</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="P26" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="R26" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="S26" t="n">
-        <v>199.280873144474</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="T26" t="n">
         <v>221.2249408455859</v>
@@ -29369,31 +29369,31 @@
         <v>137.114842254054</v>
       </c>
       <c r="H27" t="n">
-        <v>110.026926034905</v>
+        <v>157.7231666763128</v>
       </c>
       <c r="I27" t="n">
-        <v>91.64914299614301</v>
+        <v>81.52339584755808</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K27" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L27" t="n">
-        <v>136.5990792905889</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M27" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N27" t="n">
-        <v>71.86717946018483</v>
+        <v>71.86717946018479</v>
       </c>
       <c r="O27" t="n">
-        <v>88.18866638734508</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q27" t="n">
         <v>110.7916225242057</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>221.2249408455859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -29454,13 +29454,13 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J28" t="n">
-        <v>79.80504541274972</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29472,16 +29472,16 @@
         <v>111.3587261364775</v>
       </c>
       <c r="P28" t="n">
-        <v>124.8884579766332</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>135.4516218226006</v>
+        <v>187.7412799975078</v>
       </c>
       <c r="R28" t="n">
         <v>168.6732614754589</v>
       </c>
       <c r="S28" t="n">
-        <v>221.2249408455859</v>
+        <v>220.675556989342</v>
       </c>
       <c r="T28" t="n">
         <v>221.2249408455859</v>
@@ -29533,16 +29533,16 @@
         <v>221.2249408455859</v>
       </c>
       <c r="J29" t="n">
-        <v>63.45906112813083</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="K29" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="M29" t="n">
-        <v>221.2249408455859</v>
+        <v>194.9242879477313</v>
       </c>
       <c r="N29" t="n">
         <v>221.2249408455859</v>
@@ -29557,10 +29557,10 @@
         <v>221.2249408455859</v>
       </c>
       <c r="R29" t="n">
-        <v>123.0219517980703</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S29" t="n">
-        <v>199.280873144474</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="T29" t="n">
         <v>221.2249408455859</v>
@@ -29609,40 +29609,40 @@
         <v>110.026926034905</v>
       </c>
       <c r="I30" t="n">
-        <v>91.64914299614301</v>
+        <v>81.52339584755808</v>
       </c>
       <c r="J30" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>88.90283864918115</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>84.19302733439818</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>71.86717946018483</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>88.18866638734508</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>90.30752936669641</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>110.7916225242057</v>
       </c>
       <c r="R30" t="n">
-        <v>179.1778410351043</v>
+        <v>85.95993058237566</v>
       </c>
       <c r="S30" t="n">
         <v>167.4356349622666</v>
       </c>
       <c r="T30" t="n">
-        <v>199.2430083373</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U30" t="n">
         <v>221.2249408455859</v>
@@ -29691,10 +29691,10 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J31" t="n">
-        <v>113.4412867354731</v>
+        <v>79.80504541274971</v>
       </c>
       <c r="K31" t="n">
-        <v>172.0398639874983</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29703,10 +29703,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>98.34817151022008</v>
+        <v>101.1433831614685</v>
       </c>
       <c r="O31" t="n">
-        <v>221.2249408455859</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29718,7 +29718,7 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S31" t="n">
-        <v>220.675556989342</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="T31" t="n">
         <v>221.2249408455859</v>
@@ -29767,10 +29767,10 @@
         <v>221.2249408455859</v>
       </c>
       <c r="I32" t="n">
-        <v>193.998857389544</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="K32" t="n">
         <v>221.2249408455859</v>
@@ -29782,7 +29782,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="O32" t="n">
         <v>221.2249408455859</v>
@@ -29791,7 +29791,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="Q32" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>221.2249408455859</v>
@@ -29846,37 +29846,37 @@
         <v>110.026926034905</v>
       </c>
       <c r="I33" t="n">
-        <v>91.64914299614301</v>
+        <v>91.649142996143</v>
       </c>
       <c r="J33" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>59.11945845747731</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M33" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N33" t="n">
-        <v>119.5634201015926</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>88.18866638734508</v>
+        <v>64.77952326793721</v>
       </c>
       <c r="P33" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.7916225242057</v>
       </c>
       <c r="R33" t="n">
         <v>131.4816003936965</v>
       </c>
       <c r="S33" t="n">
-        <v>167.4356349622666</v>
+        <v>199.5896305353927</v>
       </c>
       <c r="T33" t="n">
         <v>199.2430083373</v>
@@ -29894,7 +29894,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>221.2249408455859</v>
       </c>
     </row>
     <row r="34">
@@ -29907,10 +29907,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>217.2521014114</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -29931,28 +29931,28 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>108.8738430064008</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>163.6483843113847</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>135.4516218226006</v>
       </c>
       <c r="R34" t="n">
-        <v>168.6732614754589</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S34" t="n">
         <v>220.675556989342</v>
@@ -30004,7 +30004,7 @@
         <v>244.6402526369835</v>
       </c>
       <c r="I35" t="n">
-        <v>193.998857389544</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="J35" t="n">
         <v>244.6402526369835</v>
@@ -30025,16 +30025,16 @@
         <v>244.6402526369835</v>
       </c>
       <c r="P35" t="n">
-        <v>5.617751195473152</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Q35" t="n">
+        <v>96.99358201488396</v>
+      </c>
+      <c r="R35" t="n">
+        <v>123.0219517980703</v>
+      </c>
+      <c r="S35" t="n">
         <v>244.6402526369835</v>
-      </c>
-      <c r="R35" t="n">
-        <v>244.6402526369835</v>
-      </c>
-      <c r="S35" t="n">
-        <v>199.280873144474</v>
       </c>
       <c r="T35" t="n">
         <v>244.6402526369835</v>
@@ -30074,7 +30074,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>152.2671825228973</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.114842254054</v>
@@ -30083,7 +30083,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I36" t="n">
-        <v>91.64914299614301</v>
+        <v>91.649142996143</v>
       </c>
       <c r="J36" t="n">
         <v>105.2328625520064</v>
@@ -30092,22 +30092,22 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L36" t="n">
-        <v>88.90283864918115</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M36" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N36" t="n">
-        <v>71.86717946018483</v>
+        <v>71.86717946018479</v>
       </c>
       <c r="O36" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P36" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.7916225242057</v>
+        <v>117.9895926537192</v>
       </c>
       <c r="R36" t="n">
         <v>131.4816003936965</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30168,19 +30168,19 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>106.3821278759461</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M37" t="n">
         <v>108.8738430064008</v>
       </c>
       <c r="N37" t="n">
-        <v>191.2452799822929</v>
+        <v>98.34817151022007</v>
       </c>
       <c r="O37" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>114.5411443216187</v>
@@ -30207,10 +30207,10 @@
         <v>244.6402526369835</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>227.7428921211751</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>244.6402526369835</v>
       </c>
     </row>
     <row r="38">
@@ -30247,13 +30247,13 @@
         <v>244.6402526369835</v>
       </c>
       <c r="K38" t="n">
-        <v>31.78358527736095</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="L38" t="n">
         <v>244.6402526369835</v>
       </c>
       <c r="M38" t="n">
-        <v>155.2999281386852</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="N38" t="n">
         <v>244.6402526369835</v>
@@ -30320,31 +30320,31 @@
         <v>110.026926034905</v>
       </c>
       <c r="I39" t="n">
-        <v>91.64914299614301</v>
+        <v>91.649142996143</v>
       </c>
       <c r="J39" t="n">
         <v>105.2328625520064</v>
       </c>
       <c r="K39" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>88.90283864918115</v>
+        <v>84.08213093978009</v>
       </c>
       <c r="M39" t="n">
-        <v>84.19302733439818</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>71.86717946018483</v>
+        <v>71.86717946018479</v>
       </c>
       <c r="O39" t="n">
-        <v>88.18866638734508</v>
+        <v>95.38663651685846</v>
       </c>
       <c r="P39" t="n">
-        <v>90.30752936669641</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.7916225242057</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>131.4816003936965</v>
@@ -30368,7 +30368,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>212.8806659068178</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>177.8218549959529</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -30405,16 +30405,16 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>98.34817151022008</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>111.3587261364775</v>
@@ -30423,7 +30423,7 @@
         <v>114.5411443216187</v>
       </c>
       <c r="Q40" t="n">
-        <v>228.3487302946735</v>
+        <v>135.4516218226006</v>
       </c>
       <c r="R40" t="n">
         <v>168.6732614754589</v>
@@ -30432,7 +30432,7 @@
         <v>220.675556989342</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1264505172819</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="U40" t="n">
         <v>244.6402526369835</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="C41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="D41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="E41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="F41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="G41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="H41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="I41" t="n">
-        <v>193.998857389544</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="J41" t="n">
-        <v>152.2882288941315</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="K41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="L41" t="n">
-        <v>244.6402526369834</v>
+        <v>168.320743330499</v>
       </c>
       <c r="M41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="N41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="O41" t="n">
-        <v>244.6402526369834</v>
+        <v>86.73336159932282</v>
       </c>
       <c r="P41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="R41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="S41" t="n">
-        <v>199.280873144474</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2249408455859</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="U41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Y41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I42" t="n">
-        <v>91.64914299614301</v>
+        <v>91.649142996143</v>
       </c>
       <c r="J42" t="n">
         <v>105.2328625520064</v>
@@ -30566,19 +30566,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>96.10080877869456</v>
       </c>
       <c r="M42" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N42" t="n">
-        <v>71.86717946018483</v>
+        <v>71.86717946018479</v>
       </c>
       <c r="O42" t="n">
-        <v>88.18866638734508</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q42" t="n">
         <v>110.7916225242057</v>
@@ -30590,7 +30590,7 @@
         <v>167.4356349622666</v>
       </c>
       <c r="T42" t="n">
-        <v>206.4409784668135</v>
+        <v>199.2430083373</v>
       </c>
       <c r="U42" t="n">
         <v>225.9263376790566</v>
@@ -30599,7 +30599,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -30639,25 +30639,25 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J43" t="n">
-        <v>79.80504541274972</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L43" t="n">
-        <v>106.3821278759461</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M43" t="n">
-        <v>108.8738430064008</v>
+        <v>23.26129056902801</v>
       </c>
       <c r="N43" t="n">
-        <v>98.34817151022008</v>
+        <v>98.34817151022007</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P43" t="n">
-        <v>183.4735571460504</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q43" t="n">
         <v>135.4516218226006</v>
@@ -30666,19 +30666,19 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S43" t="n">
-        <v>244.6402526369834</v>
+        <v>220.675556989342</v>
       </c>
       <c r="T43" t="n">
         <v>227.1264505172819</v>
       </c>
       <c r="U43" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V43" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W43" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="C44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="D44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="E44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="F44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="G44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="H44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="I44" t="n">
-        <v>193.998857389544</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="J44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="K44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="L44" t="n">
-        <v>244.6402526369834</v>
+        <v>196.7441008644172</v>
       </c>
       <c r="M44" t="n">
-        <v>172.549372226174</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="N44" t="n">
-        <v>153.1524308331736</v>
+        <v>153.1524308331735</v>
       </c>
       <c r="O44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="P44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="R44" t="n">
-        <v>188.7383716710527</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="S44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="T44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="U44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Y44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
     </row>
     <row r="45">
@@ -30776,7 +30776,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>179.9064691178293</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -30794,7 +30794,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I45" t="n">
-        <v>91.64914299614301</v>
+        <v>81.52339584755808</v>
       </c>
       <c r="J45" t="n">
         <v>105.2328625520064</v>
@@ -30803,22 +30803,22 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L45" t="n">
-        <v>88.90283864918115</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M45" t="n">
-        <v>84.19302733439818</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>71.86717946018483</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P45" t="n">
-        <v>90.30752936669641</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.7916225242057</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>131.4816003936965</v>
@@ -30830,13 +30830,13 @@
         <v>199.2430083373</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9263376790566</v>
+        <v>233.1243078085701</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -30870,7 +30870,7 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H46" t="n">
-        <v>160.5226664330617</v>
+        <v>166.9550806049564</v>
       </c>
       <c r="I46" t="n">
         <v>149.6851312728186</v>
@@ -30882,13 +30882,13 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>108.8738430064008</v>
       </c>
       <c r="N46" t="n">
-        <v>191.2452799822932</v>
+        <v>98.34817151022007</v>
       </c>
       <c r="O46" t="n">
         <v>111.3587261364775</v>
@@ -30903,25 +30903,25 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S46" t="n">
-        <v>220.675556989342</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1264505172819</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="U46" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V46" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W46" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>244.6402526369835</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4273920544935327</v>
+        <v>0.427392054493533</v>
       </c>
       <c r="H11" t="n">
-        <v>4.377028878081893</v>
+        <v>4.377028878081895</v>
       </c>
       <c r="I11" t="n">
-        <v>16.47703218086194</v>
+        <v>16.47703218086195</v>
       </c>
       <c r="J11" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507053</v>
       </c>
       <c r="K11" t="n">
-        <v>54.36587205178175</v>
+        <v>54.36587205178179</v>
       </c>
       <c r="L11" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948827</v>
       </c>
       <c r="M11" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858763</v>
       </c>
       <c r="N11" t="n">
-        <v>76.26063276341733</v>
+        <v>76.26063276341739</v>
       </c>
       <c r="O11" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154732</v>
       </c>
       <c r="P11" t="n">
-        <v>61.45951167623817</v>
+        <v>61.45951167623821</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.15353372468851</v>
+        <v>46.15353372468854</v>
       </c>
       <c r="R11" t="n">
-        <v>26.8471661430794</v>
+        <v>26.84716614307941</v>
       </c>
       <c r="S11" t="n">
-        <v>9.739196441771385</v>
+        <v>9.739196441771393</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545442</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948263</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566108</v>
       </c>
       <c r="H12" t="n">
-        <v>2.208518201591477</v>
+        <v>2.208518201591478</v>
       </c>
       <c r="I12" t="n">
-        <v>7.873237003856989</v>
+        <v>7.873237003856994</v>
       </c>
       <c r="J12" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466032</v>
       </c>
       <c r="K12" t="n">
-        <v>36.92598302815322</v>
+        <v>36.92598302815324</v>
       </c>
       <c r="L12" t="n">
-        <v>49.65154113069303</v>
+        <v>49.65154113069305</v>
       </c>
       <c r="M12" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762019</v>
       </c>
       <c r="N12" t="n">
-        <v>59.47453262314848</v>
+        <v>59.47453262314852</v>
       </c>
       <c r="O12" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709941</v>
       </c>
       <c r="P12" t="n">
-        <v>43.66687804763383</v>
+        <v>43.66687804763387</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181579</v>
       </c>
       <c r="R12" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026747</v>
       </c>
       <c r="S12" t="n">
-        <v>4.247536141571252</v>
+        <v>4.247536141571254</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9217203575216012</v>
+        <v>0.9217203575216019</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819808</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.191713362148841</v>
       </c>
       <c r="H13" t="n">
-        <v>1.704506074377878</v>
+        <v>1.704506074377879</v>
       </c>
       <c r="I13" t="n">
-        <v>5.765343654439691</v>
+        <v>5.765343654439694</v>
       </c>
       <c r="J13" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392306</v>
       </c>
       <c r="K13" t="n">
-        <v>22.2736069842017</v>
+        <v>22.27360698420171</v>
       </c>
       <c r="L13" t="n">
-        <v>28.50254840529223</v>
+        <v>28.50254840529225</v>
       </c>
       <c r="M13" t="n">
-        <v>30.05194094120422</v>
+        <v>30.05194094120423</v>
       </c>
       <c r="N13" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501312</v>
       </c>
       <c r="O13" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536529</v>
       </c>
       <c r="P13" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752891</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.05337980684522</v>
+        <v>16.05337980684523</v>
       </c>
       <c r="R13" t="n">
-        <v>8.620129901710609</v>
+        <v>8.620129901710614</v>
       </c>
       <c r="S13" t="n">
-        <v>3.341041047630254</v>
+        <v>3.341041047630256</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8191389109995928</v>
+        <v>0.8191389109995934</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084589</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4273920544935327</v>
+        <v>0.427392054493533</v>
       </c>
       <c r="H14" t="n">
-        <v>4.377028878081893</v>
+        <v>4.377028878081895</v>
       </c>
       <c r="I14" t="n">
-        <v>16.47703218086194</v>
+        <v>16.47703218086195</v>
       </c>
       <c r="J14" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507053</v>
       </c>
       <c r="K14" t="n">
-        <v>54.36587205178175</v>
+        <v>54.36587205178179</v>
       </c>
       <c r="L14" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948827</v>
       </c>
       <c r="M14" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858763</v>
       </c>
       <c r="N14" t="n">
-        <v>76.26063276341733</v>
+        <v>76.26063276341739</v>
       </c>
       <c r="O14" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154732</v>
       </c>
       <c r="P14" t="n">
-        <v>61.45951167623817</v>
+        <v>61.45951167623821</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.15353372468851</v>
+        <v>46.15353372468854</v>
       </c>
       <c r="R14" t="n">
-        <v>26.8471661430794</v>
+        <v>26.84716614307941</v>
       </c>
       <c r="S14" t="n">
-        <v>9.739196441771385</v>
+        <v>9.739196441771393</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545442</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948263</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566108</v>
       </c>
       <c r="H15" t="n">
-        <v>2.208518201591477</v>
+        <v>2.208518201591478</v>
       </c>
       <c r="I15" t="n">
-        <v>7.873237003856989</v>
+        <v>7.873237003856994</v>
       </c>
       <c r="J15" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466032</v>
       </c>
       <c r="K15" t="n">
-        <v>36.92598302815322</v>
+        <v>36.92598302815324</v>
       </c>
       <c r="L15" t="n">
-        <v>49.65154113069303</v>
+        <v>49.65154113069305</v>
       </c>
       <c r="M15" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762019</v>
       </c>
       <c r="N15" t="n">
-        <v>59.47453262314848</v>
+        <v>59.47453262314852</v>
       </c>
       <c r="O15" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709941</v>
       </c>
       <c r="P15" t="n">
-        <v>43.66687804763383</v>
+        <v>43.66687804763387</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181579</v>
       </c>
       <c r="R15" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026747</v>
       </c>
       <c r="S15" t="n">
-        <v>4.247536141571252</v>
+        <v>4.247536141571254</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9217203575216012</v>
+        <v>0.9217203575216019</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819808</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.191713362148841</v>
       </c>
       <c r="H16" t="n">
-        <v>1.704506074377878</v>
+        <v>1.704506074377879</v>
       </c>
       <c r="I16" t="n">
-        <v>5.765343654439691</v>
+        <v>5.765343654439694</v>
       </c>
       <c r="J16" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392306</v>
       </c>
       <c r="K16" t="n">
-        <v>22.2736069842017</v>
+        <v>22.27360698420171</v>
       </c>
       <c r="L16" t="n">
-        <v>28.50254840529223</v>
+        <v>28.50254840529225</v>
       </c>
       <c r="M16" t="n">
-        <v>30.05194094120422</v>
+        <v>30.05194094120423</v>
       </c>
       <c r="N16" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501312</v>
       </c>
       <c r="O16" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536529</v>
       </c>
       <c r="P16" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752891</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.05337980684522</v>
+        <v>16.05337980684523</v>
       </c>
       <c r="R16" t="n">
-        <v>8.620129901710609</v>
+        <v>8.620129901710614</v>
       </c>
       <c r="S16" t="n">
-        <v>3.341041047630254</v>
+        <v>3.341041047630256</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8191389109995928</v>
+        <v>0.8191389109995934</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084589</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4273920544935327</v>
+        <v>0.427392054493533</v>
       </c>
       <c r="H17" t="n">
-        <v>4.377028878081893</v>
+        <v>4.377028878081895</v>
       </c>
       <c r="I17" t="n">
-        <v>16.47703218086194</v>
+        <v>16.47703218086195</v>
       </c>
       <c r="J17" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507053</v>
       </c>
       <c r="K17" t="n">
-        <v>54.36587205178175</v>
+        <v>54.36587205178179</v>
       </c>
       <c r="L17" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948827</v>
       </c>
       <c r="M17" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858763</v>
       </c>
       <c r="N17" t="n">
-        <v>76.26063276341733</v>
+        <v>76.26063276341739</v>
       </c>
       <c r="O17" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154732</v>
       </c>
       <c r="P17" t="n">
-        <v>61.45951167623817</v>
+        <v>61.45951167623821</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.15353372468851</v>
+        <v>46.15353372468854</v>
       </c>
       <c r="R17" t="n">
-        <v>26.8471661430794</v>
+        <v>26.84716614307941</v>
       </c>
       <c r="S17" t="n">
-        <v>9.739196441771385</v>
+        <v>9.739196441771393</v>
       </c>
       <c r="T17" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545442</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948263</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566108</v>
       </c>
       <c r="H18" t="n">
-        <v>2.208518201591477</v>
+        <v>2.208518201591478</v>
       </c>
       <c r="I18" t="n">
-        <v>7.873237003856989</v>
+        <v>7.873237003856994</v>
       </c>
       <c r="J18" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466032</v>
       </c>
       <c r="K18" t="n">
-        <v>36.92598302815322</v>
+        <v>36.92598302815324</v>
       </c>
       <c r="L18" t="n">
-        <v>49.65154113069303</v>
+        <v>49.65154113069305</v>
       </c>
       <c r="M18" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762019</v>
       </c>
       <c r="N18" t="n">
-        <v>59.47453262314848</v>
+        <v>59.47453262314852</v>
       </c>
       <c r="O18" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709941</v>
       </c>
       <c r="P18" t="n">
-        <v>43.66687804763383</v>
+        <v>43.66687804763387</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181579</v>
       </c>
       <c r="R18" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026747</v>
       </c>
       <c r="S18" t="n">
-        <v>4.247536141571252</v>
+        <v>4.247536141571254</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9217203575216012</v>
+        <v>0.9217203575216019</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819808</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.191713362148841</v>
       </c>
       <c r="H19" t="n">
-        <v>1.704506074377878</v>
+        <v>1.704506074377879</v>
       </c>
       <c r="I19" t="n">
-        <v>5.765343654439691</v>
+        <v>5.765343654439694</v>
       </c>
       <c r="J19" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392306</v>
       </c>
       <c r="K19" t="n">
-        <v>22.2736069842017</v>
+        <v>22.27360698420171</v>
       </c>
       <c r="L19" t="n">
-        <v>28.50254840529223</v>
+        <v>28.50254840529225</v>
       </c>
       <c r="M19" t="n">
-        <v>30.05194094120422</v>
+        <v>30.05194094120423</v>
       </c>
       <c r="N19" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501312</v>
       </c>
       <c r="O19" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536529</v>
       </c>
       <c r="P19" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752891</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.05337980684522</v>
+        <v>16.05337980684523</v>
       </c>
       <c r="R19" t="n">
-        <v>8.620129901710609</v>
+        <v>8.620129901710614</v>
       </c>
       <c r="S19" t="n">
-        <v>3.341041047630254</v>
+        <v>3.341041047630256</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8191389109995928</v>
+        <v>0.8191389109995934</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084589</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4273920544935327</v>
+        <v>0.427392054493533</v>
       </c>
       <c r="H20" t="n">
-        <v>4.377028878081893</v>
+        <v>4.377028878081895</v>
       </c>
       <c r="I20" t="n">
-        <v>16.47703218086194</v>
+        <v>16.47703218086195</v>
       </c>
       <c r="J20" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507053</v>
       </c>
       <c r="K20" t="n">
-        <v>54.36587205178175</v>
+        <v>54.36587205178179</v>
       </c>
       <c r="L20" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948827</v>
       </c>
       <c r="M20" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858763</v>
       </c>
       <c r="N20" t="n">
-        <v>76.26063276341733</v>
+        <v>76.26063276341739</v>
       </c>
       <c r="O20" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154732</v>
       </c>
       <c r="P20" t="n">
-        <v>61.45951167623817</v>
+        <v>61.45951167623821</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.15353372468851</v>
+        <v>46.15353372468854</v>
       </c>
       <c r="R20" t="n">
-        <v>26.8471661430794</v>
+        <v>26.84716614307941</v>
       </c>
       <c r="S20" t="n">
-        <v>9.739196441771385</v>
+        <v>9.739196441771393</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545442</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948263</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566108</v>
       </c>
       <c r="H21" t="n">
-        <v>2.208518201591477</v>
+        <v>2.208518201591478</v>
       </c>
       <c r="I21" t="n">
-        <v>7.873237003856989</v>
+        <v>7.873237003856994</v>
       </c>
       <c r="J21" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466032</v>
       </c>
       <c r="K21" t="n">
-        <v>36.92598302815322</v>
+        <v>36.92598302815324</v>
       </c>
       <c r="L21" t="n">
-        <v>49.65154113069303</v>
+        <v>49.65154113069305</v>
       </c>
       <c r="M21" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762019</v>
       </c>
       <c r="N21" t="n">
-        <v>59.47453262314848</v>
+        <v>59.47453262314852</v>
       </c>
       <c r="O21" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709941</v>
       </c>
       <c r="P21" t="n">
-        <v>43.66687804763383</v>
+        <v>43.66687804763387</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181579</v>
       </c>
       <c r="R21" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026747</v>
       </c>
       <c r="S21" t="n">
-        <v>4.247536141571252</v>
+        <v>4.247536141571254</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9217203575216012</v>
+        <v>0.9217203575216019</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819808</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.191713362148841</v>
       </c>
       <c r="H22" t="n">
-        <v>1.704506074377878</v>
+        <v>1.704506074377879</v>
       </c>
       <c r="I22" t="n">
-        <v>5.765343654439691</v>
+        <v>5.765343654439694</v>
       </c>
       <c r="J22" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392306</v>
       </c>
       <c r="K22" t="n">
-        <v>22.2736069842017</v>
+        <v>22.27360698420171</v>
       </c>
       <c r="L22" t="n">
-        <v>28.50254840529223</v>
+        <v>28.50254840529225</v>
       </c>
       <c r="M22" t="n">
-        <v>30.05194094120422</v>
+        <v>30.05194094120423</v>
       </c>
       <c r="N22" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501312</v>
       </c>
       <c r="O22" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536529</v>
       </c>
       <c r="P22" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752891</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.05337980684522</v>
+        <v>16.05337980684523</v>
       </c>
       <c r="R22" t="n">
-        <v>8.620129901710609</v>
+        <v>8.620129901710614</v>
       </c>
       <c r="S22" t="n">
-        <v>3.341041047630254</v>
+        <v>3.341041047630256</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8191389109995928</v>
+        <v>0.8191389109995934</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084589</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4273920544935327</v>
+        <v>0.427392054493533</v>
       </c>
       <c r="H23" t="n">
-        <v>4.377028878081893</v>
+        <v>4.377028878081895</v>
       </c>
       <c r="I23" t="n">
-        <v>16.47703218086194</v>
+        <v>16.47703218086195</v>
       </c>
       <c r="J23" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507053</v>
       </c>
       <c r="K23" t="n">
-        <v>54.36587205178175</v>
+        <v>54.36587205178179</v>
       </c>
       <c r="L23" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948827</v>
       </c>
       <c r="M23" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858763</v>
       </c>
       <c r="N23" t="n">
-        <v>76.26063276341733</v>
+        <v>76.26063276341739</v>
       </c>
       <c r="O23" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154732</v>
       </c>
       <c r="P23" t="n">
-        <v>61.45951167623817</v>
+        <v>61.45951167623821</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.15353372468851</v>
+        <v>46.15353372468854</v>
       </c>
       <c r="R23" t="n">
-        <v>26.8471661430794</v>
+        <v>26.84716614307941</v>
       </c>
       <c r="S23" t="n">
-        <v>9.739196441771385</v>
+        <v>9.739196441771393</v>
       </c>
       <c r="T23" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545442</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948263</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566108</v>
       </c>
       <c r="H24" t="n">
-        <v>2.208518201591477</v>
+        <v>2.208518201591478</v>
       </c>
       <c r="I24" t="n">
-        <v>7.873237003856989</v>
+        <v>7.873237003856994</v>
       </c>
       <c r="J24" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466032</v>
       </c>
       <c r="K24" t="n">
-        <v>36.92598302815322</v>
+        <v>36.92598302815324</v>
       </c>
       <c r="L24" t="n">
-        <v>49.65154113069303</v>
+        <v>49.65154113069305</v>
       </c>
       <c r="M24" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762019</v>
       </c>
       <c r="N24" t="n">
-        <v>59.47453262314848</v>
+        <v>59.47453262314852</v>
       </c>
       <c r="O24" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709941</v>
       </c>
       <c r="P24" t="n">
-        <v>43.66687804763383</v>
+        <v>43.66687804763387</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181579</v>
       </c>
       <c r="R24" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026747</v>
       </c>
       <c r="S24" t="n">
-        <v>4.247536141571252</v>
+        <v>4.247536141571254</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9217203575216012</v>
+        <v>0.9217203575216019</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819808</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.191713362148841</v>
       </c>
       <c r="H25" t="n">
-        <v>1.704506074377878</v>
+        <v>1.704506074377879</v>
       </c>
       <c r="I25" t="n">
-        <v>5.765343654439691</v>
+        <v>5.765343654439694</v>
       </c>
       <c r="J25" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392306</v>
       </c>
       <c r="K25" t="n">
-        <v>22.2736069842017</v>
+        <v>22.27360698420171</v>
       </c>
       <c r="L25" t="n">
-        <v>28.50254840529223</v>
+        <v>28.50254840529225</v>
       </c>
       <c r="M25" t="n">
-        <v>30.05194094120422</v>
+        <v>30.05194094120423</v>
       </c>
       <c r="N25" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501312</v>
       </c>
       <c r="O25" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536529</v>
       </c>
       <c r="P25" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752891</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.05337980684522</v>
+        <v>16.05337980684523</v>
       </c>
       <c r="R25" t="n">
-        <v>8.620129901710609</v>
+        <v>8.620129901710614</v>
       </c>
       <c r="S25" t="n">
-        <v>3.341041047630254</v>
+        <v>3.341041047630256</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8191389109995928</v>
+        <v>0.8191389109995934</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084589</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4273920544935327</v>
+        <v>0.427392054493533</v>
       </c>
       <c r="H26" t="n">
-        <v>4.377028878081893</v>
+        <v>4.377028878081895</v>
       </c>
       <c r="I26" t="n">
-        <v>16.47703218086194</v>
+        <v>16.47703218086195</v>
       </c>
       <c r="J26" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507053</v>
       </c>
       <c r="K26" t="n">
-        <v>54.36587205178175</v>
+        <v>54.36587205178179</v>
       </c>
       <c r="L26" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948827</v>
       </c>
       <c r="M26" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858763</v>
       </c>
       <c r="N26" t="n">
-        <v>76.26063276341733</v>
+        <v>76.26063276341739</v>
       </c>
       <c r="O26" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154732</v>
       </c>
       <c r="P26" t="n">
-        <v>61.45951167623817</v>
+        <v>61.45951167623821</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.15353372468851</v>
+        <v>46.15353372468854</v>
       </c>
       <c r="R26" t="n">
-        <v>26.8471661430794</v>
+        <v>26.84716614307941</v>
       </c>
       <c r="S26" t="n">
-        <v>9.739196441771385</v>
+        <v>9.739196441771393</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545442</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948263</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566108</v>
       </c>
       <c r="H27" t="n">
-        <v>2.208518201591477</v>
+        <v>2.208518201591478</v>
       </c>
       <c r="I27" t="n">
-        <v>7.873237003856989</v>
+        <v>7.873237003856994</v>
       </c>
       <c r="J27" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466032</v>
       </c>
       <c r="K27" t="n">
-        <v>36.92598302815322</v>
+        <v>36.92598302815324</v>
       </c>
       <c r="L27" t="n">
-        <v>49.65154113069303</v>
+        <v>49.65154113069305</v>
       </c>
       <c r="M27" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762019</v>
       </c>
       <c r="N27" t="n">
-        <v>59.47453262314848</v>
+        <v>59.47453262314852</v>
       </c>
       <c r="O27" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709941</v>
       </c>
       <c r="P27" t="n">
-        <v>43.66687804763383</v>
+        <v>43.66687804763387</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181579</v>
       </c>
       <c r="R27" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026747</v>
       </c>
       <c r="S27" t="n">
-        <v>4.247536141571252</v>
+        <v>4.247536141571254</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9217203575216012</v>
+        <v>0.9217203575216019</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819808</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.191713362148841</v>
       </c>
       <c r="H28" t="n">
-        <v>1.704506074377878</v>
+        <v>1.704506074377879</v>
       </c>
       <c r="I28" t="n">
-        <v>5.765343654439691</v>
+        <v>5.765343654439694</v>
       </c>
       <c r="J28" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392306</v>
       </c>
       <c r="K28" t="n">
-        <v>22.2736069842017</v>
+        <v>22.27360698420171</v>
       </c>
       <c r="L28" t="n">
-        <v>28.50254840529223</v>
+        <v>28.50254840529225</v>
       </c>
       <c r="M28" t="n">
-        <v>30.05194094120422</v>
+        <v>30.05194094120423</v>
       </c>
       <c r="N28" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501312</v>
       </c>
       <c r="O28" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536529</v>
       </c>
       <c r="P28" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752891</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.05337980684522</v>
+        <v>16.05337980684523</v>
       </c>
       <c r="R28" t="n">
-        <v>8.620129901710609</v>
+        <v>8.620129901710614</v>
       </c>
       <c r="S28" t="n">
-        <v>3.341041047630254</v>
+        <v>3.341041047630256</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8191389109995928</v>
+        <v>0.8191389109995934</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084589</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4273920544935327</v>
+        <v>0.427392054493533</v>
       </c>
       <c r="H29" t="n">
-        <v>4.377028878081893</v>
+        <v>4.377028878081895</v>
       </c>
       <c r="I29" t="n">
-        <v>16.47703218086194</v>
+        <v>16.47703218086195</v>
       </c>
       <c r="J29" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507053</v>
       </c>
       <c r="K29" t="n">
-        <v>54.36587205178175</v>
+        <v>54.36587205178179</v>
       </c>
       <c r="L29" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948827</v>
       </c>
       <c r="M29" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858763</v>
       </c>
       <c r="N29" t="n">
-        <v>76.26063276341733</v>
+        <v>76.26063276341739</v>
       </c>
       <c r="O29" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154732</v>
       </c>
       <c r="P29" t="n">
-        <v>61.45951167623817</v>
+        <v>61.45951167623821</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.15353372468851</v>
+        <v>46.15353372468854</v>
       </c>
       <c r="R29" t="n">
-        <v>26.8471661430794</v>
+        <v>26.84716614307941</v>
       </c>
       <c r="S29" t="n">
-        <v>9.739196441771385</v>
+        <v>9.739196441771393</v>
       </c>
       <c r="T29" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545442</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948263</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566108</v>
       </c>
       <c r="H30" t="n">
-        <v>2.208518201591477</v>
+        <v>2.208518201591478</v>
       </c>
       <c r="I30" t="n">
-        <v>7.873237003856989</v>
+        <v>7.873237003856994</v>
       </c>
       <c r="J30" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466032</v>
       </c>
       <c r="K30" t="n">
-        <v>36.92598302815322</v>
+        <v>36.92598302815324</v>
       </c>
       <c r="L30" t="n">
-        <v>49.65154113069303</v>
+        <v>49.65154113069305</v>
       </c>
       <c r="M30" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762019</v>
       </c>
       <c r="N30" t="n">
-        <v>59.47453262314848</v>
+        <v>59.47453262314852</v>
       </c>
       <c r="O30" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709941</v>
       </c>
       <c r="P30" t="n">
-        <v>43.66687804763383</v>
+        <v>43.66687804763387</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181579</v>
       </c>
       <c r="R30" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026747</v>
       </c>
       <c r="S30" t="n">
-        <v>4.247536141571252</v>
+        <v>4.247536141571254</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9217203575216012</v>
+        <v>0.9217203575216019</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819808</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.191713362148841</v>
       </c>
       <c r="H31" t="n">
-        <v>1.704506074377878</v>
+        <v>1.704506074377879</v>
       </c>
       <c r="I31" t="n">
-        <v>5.765343654439691</v>
+        <v>5.765343654439694</v>
       </c>
       <c r="J31" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392306</v>
       </c>
       <c r="K31" t="n">
-        <v>22.2736069842017</v>
+        <v>22.27360698420171</v>
       </c>
       <c r="L31" t="n">
-        <v>28.50254840529223</v>
+        <v>28.50254840529225</v>
       </c>
       <c r="M31" t="n">
-        <v>30.05194094120422</v>
+        <v>30.05194094120423</v>
       </c>
       <c r="N31" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501312</v>
       </c>
       <c r="O31" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536529</v>
       </c>
       <c r="P31" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752891</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.05337980684522</v>
+        <v>16.05337980684523</v>
       </c>
       <c r="R31" t="n">
-        <v>8.620129901710609</v>
+        <v>8.620129901710614</v>
       </c>
       <c r="S31" t="n">
-        <v>3.341041047630254</v>
+        <v>3.341041047630256</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8191389109995928</v>
+        <v>0.8191389109995934</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084589</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4273920544935327</v>
+        <v>0.427392054493533</v>
       </c>
       <c r="H32" t="n">
-        <v>4.377028878081893</v>
+        <v>4.377028878081895</v>
       </c>
       <c r="I32" t="n">
-        <v>16.47703218086194</v>
+        <v>16.47703218086195</v>
       </c>
       <c r="J32" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507053</v>
       </c>
       <c r="K32" t="n">
-        <v>54.36587205178175</v>
+        <v>54.36587205178179</v>
       </c>
       <c r="L32" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948827</v>
       </c>
       <c r="M32" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858763</v>
       </c>
       <c r="N32" t="n">
-        <v>76.26063276341733</v>
+        <v>76.26063276341739</v>
       </c>
       <c r="O32" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154732</v>
       </c>
       <c r="P32" t="n">
-        <v>61.45951167623817</v>
+        <v>61.45951167623821</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.15353372468851</v>
+        <v>46.15353372468854</v>
       </c>
       <c r="R32" t="n">
-        <v>26.8471661430794</v>
+        <v>26.84716614307941</v>
       </c>
       <c r="S32" t="n">
-        <v>9.739196441771385</v>
+        <v>9.739196441771393</v>
       </c>
       <c r="T32" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545442</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948263</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566108</v>
       </c>
       <c r="H33" t="n">
-        <v>2.208518201591477</v>
+        <v>2.208518201591478</v>
       </c>
       <c r="I33" t="n">
-        <v>7.873237003856989</v>
+        <v>7.873237003856994</v>
       </c>
       <c r="J33" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466032</v>
       </c>
       <c r="K33" t="n">
-        <v>36.92598302815322</v>
+        <v>36.92598302815324</v>
       </c>
       <c r="L33" t="n">
-        <v>49.65154113069303</v>
+        <v>49.65154113069305</v>
       </c>
       <c r="M33" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762019</v>
       </c>
       <c r="N33" t="n">
-        <v>59.47453262314848</v>
+        <v>59.47453262314852</v>
       </c>
       <c r="O33" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709941</v>
       </c>
       <c r="P33" t="n">
-        <v>43.66687804763383</v>
+        <v>43.66687804763387</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181579</v>
       </c>
       <c r="R33" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026747</v>
       </c>
       <c r="S33" t="n">
-        <v>4.247536141571252</v>
+        <v>4.247536141571254</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9217203575216012</v>
+        <v>0.9217203575216019</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819808</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.191713362148841</v>
       </c>
       <c r="H34" t="n">
-        <v>1.704506074377878</v>
+        <v>1.704506074377879</v>
       </c>
       <c r="I34" t="n">
-        <v>5.765343654439691</v>
+        <v>5.765343654439694</v>
       </c>
       <c r="J34" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392306</v>
       </c>
       <c r="K34" t="n">
-        <v>22.2736069842017</v>
+        <v>22.27360698420171</v>
       </c>
       <c r="L34" t="n">
-        <v>28.50254840529223</v>
+        <v>28.50254840529225</v>
       </c>
       <c r="M34" t="n">
-        <v>30.05194094120422</v>
+        <v>30.05194094120423</v>
       </c>
       <c r="N34" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501312</v>
       </c>
       <c r="O34" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536529</v>
       </c>
       <c r="P34" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752891</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.05337980684522</v>
+        <v>16.05337980684523</v>
       </c>
       <c r="R34" t="n">
-        <v>8.620129901710609</v>
+        <v>8.620129901710614</v>
       </c>
       <c r="S34" t="n">
-        <v>3.341041047630254</v>
+        <v>3.341041047630256</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8191389109995928</v>
+        <v>0.8191389109995934</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084589</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4273920544935327</v>
+        <v>0.427392054493533</v>
       </c>
       <c r="H35" t="n">
-        <v>4.377028878081893</v>
+        <v>4.377028878081895</v>
       </c>
       <c r="I35" t="n">
-        <v>16.47703218086194</v>
+        <v>16.47703218086195</v>
       </c>
       <c r="J35" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507053</v>
       </c>
       <c r="K35" t="n">
-        <v>54.36587205178175</v>
+        <v>54.36587205178179</v>
       </c>
       <c r="L35" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948827</v>
       </c>
       <c r="M35" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858763</v>
       </c>
       <c r="N35" t="n">
-        <v>76.26063276341733</v>
+        <v>76.26063276341739</v>
       </c>
       <c r="O35" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154732</v>
       </c>
       <c r="P35" t="n">
-        <v>61.45951167623817</v>
+        <v>61.45951167623821</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.15353372468851</v>
+        <v>46.15353372468854</v>
       </c>
       <c r="R35" t="n">
-        <v>26.8471661430794</v>
+        <v>26.84716614307941</v>
       </c>
       <c r="S35" t="n">
-        <v>9.739196441771385</v>
+        <v>9.739196441771393</v>
       </c>
       <c r="T35" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545442</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948263</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566108</v>
       </c>
       <c r="H36" t="n">
-        <v>2.208518201591477</v>
+        <v>2.208518201591478</v>
       </c>
       <c r="I36" t="n">
-        <v>7.873237003856989</v>
+        <v>7.873237003856994</v>
       </c>
       <c r="J36" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466032</v>
       </c>
       <c r="K36" t="n">
-        <v>36.92598302815322</v>
+        <v>36.92598302815324</v>
       </c>
       <c r="L36" t="n">
-        <v>49.65154113069303</v>
+        <v>49.65154113069305</v>
       </c>
       <c r="M36" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762019</v>
       </c>
       <c r="N36" t="n">
-        <v>59.47453262314848</v>
+        <v>59.47453262314852</v>
       </c>
       <c r="O36" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709941</v>
       </c>
       <c r="P36" t="n">
-        <v>43.66687804763383</v>
+        <v>43.66687804763387</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181579</v>
       </c>
       <c r="R36" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026747</v>
       </c>
       <c r="S36" t="n">
-        <v>4.247536141571252</v>
+        <v>4.247536141571254</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9217203575216012</v>
+        <v>0.9217203575216019</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819808</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.191713362148841</v>
       </c>
       <c r="H37" t="n">
-        <v>1.704506074377878</v>
+        <v>1.704506074377879</v>
       </c>
       <c r="I37" t="n">
-        <v>5.765343654439691</v>
+        <v>5.765343654439694</v>
       </c>
       <c r="J37" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392306</v>
       </c>
       <c r="K37" t="n">
-        <v>22.2736069842017</v>
+        <v>22.27360698420171</v>
       </c>
       <c r="L37" t="n">
-        <v>28.50254840529223</v>
+        <v>28.50254840529225</v>
       </c>
       <c r="M37" t="n">
-        <v>30.05194094120422</v>
+        <v>30.05194094120423</v>
       </c>
       <c r="N37" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501312</v>
       </c>
       <c r="O37" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536529</v>
       </c>
       <c r="P37" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752891</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.05337980684522</v>
+        <v>16.05337980684523</v>
       </c>
       <c r="R37" t="n">
-        <v>8.620129901710609</v>
+        <v>8.620129901710614</v>
       </c>
       <c r="S37" t="n">
-        <v>3.341041047630254</v>
+        <v>3.341041047630256</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8191389109995928</v>
+        <v>0.8191389109995934</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084589</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4273920544935327</v>
+        <v>0.427392054493533</v>
       </c>
       <c r="H38" t="n">
-        <v>4.377028878081893</v>
+        <v>4.377028878081895</v>
       </c>
       <c r="I38" t="n">
-        <v>16.47703218086194</v>
+        <v>16.47703218086195</v>
       </c>
       <c r="J38" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507053</v>
       </c>
       <c r="K38" t="n">
-        <v>54.36587205178175</v>
+        <v>54.36587205178179</v>
       </c>
       <c r="L38" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948827</v>
       </c>
       <c r="M38" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858763</v>
       </c>
       <c r="N38" t="n">
-        <v>76.26063276341733</v>
+        <v>76.26063276341739</v>
       </c>
       <c r="O38" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154732</v>
       </c>
       <c r="P38" t="n">
-        <v>61.45951167623817</v>
+        <v>61.45951167623821</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.15353372468851</v>
+        <v>46.15353372468854</v>
       </c>
       <c r="R38" t="n">
-        <v>26.8471661430794</v>
+        <v>26.84716614307941</v>
       </c>
       <c r="S38" t="n">
-        <v>9.739196441771385</v>
+        <v>9.739196441771393</v>
       </c>
       <c r="T38" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545442</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948263</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566108</v>
       </c>
       <c r="H39" t="n">
-        <v>2.208518201591477</v>
+        <v>2.208518201591478</v>
       </c>
       <c r="I39" t="n">
-        <v>7.873237003856989</v>
+        <v>7.873237003856994</v>
       </c>
       <c r="J39" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466032</v>
       </c>
       <c r="K39" t="n">
-        <v>36.92598302815322</v>
+        <v>36.92598302815324</v>
       </c>
       <c r="L39" t="n">
-        <v>49.65154113069303</v>
+        <v>49.65154113069305</v>
       </c>
       <c r="M39" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762019</v>
       </c>
       <c r="N39" t="n">
-        <v>59.47453262314848</v>
+        <v>59.47453262314852</v>
       </c>
       <c r="O39" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709941</v>
       </c>
       <c r="P39" t="n">
-        <v>43.66687804763383</v>
+        <v>43.66687804763387</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181579</v>
       </c>
       <c r="R39" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026747</v>
       </c>
       <c r="S39" t="n">
-        <v>4.247536141571252</v>
+        <v>4.247536141571254</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9217203575216012</v>
+        <v>0.9217203575216019</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819808</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.191713362148841</v>
       </c>
       <c r="H40" t="n">
-        <v>1.704506074377878</v>
+        <v>1.704506074377879</v>
       </c>
       <c r="I40" t="n">
-        <v>5.765343654439691</v>
+        <v>5.765343654439694</v>
       </c>
       <c r="J40" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392306</v>
       </c>
       <c r="K40" t="n">
-        <v>22.2736069842017</v>
+        <v>22.27360698420171</v>
       </c>
       <c r="L40" t="n">
-        <v>28.50254840529223</v>
+        <v>28.50254840529225</v>
       </c>
       <c r="M40" t="n">
-        <v>30.05194094120422</v>
+        <v>30.05194094120423</v>
       </c>
       <c r="N40" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501312</v>
       </c>
       <c r="O40" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536529</v>
       </c>
       <c r="P40" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752891</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.05337980684522</v>
+        <v>16.05337980684523</v>
       </c>
       <c r="R40" t="n">
-        <v>8.620129901710609</v>
+        <v>8.620129901710614</v>
       </c>
       <c r="S40" t="n">
-        <v>3.341041047630254</v>
+        <v>3.341041047630256</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8191389109995928</v>
+        <v>0.8191389109995934</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084589</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4273920544935327</v>
+        <v>0.427392054493533</v>
       </c>
       <c r="H41" t="n">
-        <v>4.377028878081893</v>
+        <v>4.377028878081895</v>
       </c>
       <c r="I41" t="n">
-        <v>16.47703218086194</v>
+        <v>16.47703218086195</v>
       </c>
       <c r="J41" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507053</v>
       </c>
       <c r="K41" t="n">
-        <v>54.36587205178175</v>
+        <v>54.36587205178179</v>
       </c>
       <c r="L41" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948827</v>
       </c>
       <c r="M41" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858763</v>
       </c>
       <c r="N41" t="n">
-        <v>76.26063276341733</v>
+        <v>76.26063276341739</v>
       </c>
       <c r="O41" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154732</v>
       </c>
       <c r="P41" t="n">
-        <v>61.45951167623817</v>
+        <v>61.45951167623821</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.15353372468851</v>
+        <v>46.15353372468854</v>
       </c>
       <c r="R41" t="n">
-        <v>26.8471661430794</v>
+        <v>26.84716614307941</v>
       </c>
       <c r="S41" t="n">
-        <v>9.739196441771385</v>
+        <v>9.739196441771393</v>
       </c>
       <c r="T41" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545442</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948263</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566108</v>
       </c>
       <c r="H42" t="n">
-        <v>2.208518201591477</v>
+        <v>2.208518201591478</v>
       </c>
       <c r="I42" t="n">
-        <v>7.873237003856989</v>
+        <v>7.873237003856994</v>
       </c>
       <c r="J42" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466032</v>
       </c>
       <c r="K42" t="n">
-        <v>36.92598302815322</v>
+        <v>36.92598302815324</v>
       </c>
       <c r="L42" t="n">
-        <v>49.65154113069303</v>
+        <v>49.65154113069305</v>
       </c>
       <c r="M42" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762019</v>
       </c>
       <c r="N42" t="n">
-        <v>59.47453262314848</v>
+        <v>59.47453262314852</v>
       </c>
       <c r="O42" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709941</v>
       </c>
       <c r="P42" t="n">
-        <v>43.66687804763383</v>
+        <v>43.66687804763387</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181579</v>
       </c>
       <c r="R42" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026747</v>
       </c>
       <c r="S42" t="n">
-        <v>4.247536141571252</v>
+        <v>4.247536141571254</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9217203575216012</v>
+        <v>0.9217203575216019</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819808</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.191713362148841</v>
       </c>
       <c r="H43" t="n">
-        <v>1.704506074377878</v>
+        <v>1.704506074377879</v>
       </c>
       <c r="I43" t="n">
-        <v>5.765343654439691</v>
+        <v>5.765343654439694</v>
       </c>
       <c r="J43" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392306</v>
       </c>
       <c r="K43" t="n">
-        <v>22.2736069842017</v>
+        <v>22.27360698420171</v>
       </c>
       <c r="L43" t="n">
-        <v>28.50254840529223</v>
+        <v>28.50254840529225</v>
       </c>
       <c r="M43" t="n">
-        <v>30.05194094120422</v>
+        <v>30.05194094120423</v>
       </c>
       <c r="N43" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501312</v>
       </c>
       <c r="O43" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536529</v>
       </c>
       <c r="P43" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752891</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.05337980684522</v>
+        <v>16.05337980684523</v>
       </c>
       <c r="R43" t="n">
-        <v>8.620129901710609</v>
+        <v>8.620129901710614</v>
       </c>
       <c r="S43" t="n">
-        <v>3.341041047630254</v>
+        <v>3.341041047630256</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8191389109995928</v>
+        <v>0.8191389109995934</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084589</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4273920544935327</v>
+        <v>0.427392054493533</v>
       </c>
       <c r="H44" t="n">
-        <v>4.377028878081893</v>
+        <v>4.377028878081895</v>
       </c>
       <c r="I44" t="n">
-        <v>16.47703218086194</v>
+        <v>16.47703218086195</v>
       </c>
       <c r="J44" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507053</v>
       </c>
       <c r="K44" t="n">
-        <v>54.36587205178175</v>
+        <v>54.36587205178179</v>
       </c>
       <c r="L44" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948827</v>
       </c>
       <c r="M44" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858763</v>
       </c>
       <c r="N44" t="n">
-        <v>76.26063276341733</v>
+        <v>76.26063276341739</v>
       </c>
       <c r="O44" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154732</v>
       </c>
       <c r="P44" t="n">
-        <v>61.45951167623817</v>
+        <v>61.45951167623821</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.15353372468851</v>
+        <v>46.15353372468854</v>
       </c>
       <c r="R44" t="n">
-        <v>26.8471661430794</v>
+        <v>26.84716614307941</v>
       </c>
       <c r="S44" t="n">
-        <v>9.739196441771385</v>
+        <v>9.739196441771393</v>
       </c>
       <c r="T44" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545442</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948263</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566108</v>
       </c>
       <c r="H45" t="n">
-        <v>2.208518201591477</v>
+        <v>2.208518201591478</v>
       </c>
       <c r="I45" t="n">
-        <v>7.873237003856989</v>
+        <v>7.873237003856994</v>
       </c>
       <c r="J45" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466032</v>
       </c>
       <c r="K45" t="n">
-        <v>36.92598302815322</v>
+        <v>36.92598302815324</v>
       </c>
       <c r="L45" t="n">
-        <v>49.65154113069303</v>
+        <v>49.65154113069305</v>
       </c>
       <c r="M45" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762019</v>
       </c>
       <c r="N45" t="n">
-        <v>59.47453262314848</v>
+        <v>59.47453262314852</v>
       </c>
       <c r="O45" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709941</v>
       </c>
       <c r="P45" t="n">
-        <v>43.66687804763383</v>
+        <v>43.66687804763387</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181579</v>
       </c>
       <c r="R45" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026747</v>
       </c>
       <c r="S45" t="n">
-        <v>4.247536141571252</v>
+        <v>4.247536141571254</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9217203575216012</v>
+        <v>0.9217203575216019</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819808</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.191713362148841</v>
       </c>
       <c r="H46" t="n">
-        <v>1.704506074377878</v>
+        <v>1.704506074377879</v>
       </c>
       <c r="I46" t="n">
-        <v>5.765343654439691</v>
+        <v>5.765343654439694</v>
       </c>
       <c r="J46" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392306</v>
       </c>
       <c r="K46" t="n">
-        <v>22.2736069842017</v>
+        <v>22.27360698420171</v>
       </c>
       <c r="L46" t="n">
-        <v>28.50254840529223</v>
+        <v>28.50254840529225</v>
       </c>
       <c r="M46" t="n">
-        <v>30.05194094120422</v>
+        <v>30.05194094120423</v>
       </c>
       <c r="N46" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501312</v>
       </c>
       <c r="O46" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536529</v>
       </c>
       <c r="P46" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752891</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.05337980684522</v>
+        <v>16.05337980684523</v>
       </c>
       <c r="R46" t="n">
-        <v>8.620129901710609</v>
+        <v>8.620129901710614</v>
       </c>
       <c r="S46" t="n">
-        <v>3.341041047630254</v>
+        <v>3.341041047630256</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8191389109995928</v>
+        <v>0.8191389109995934</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084589</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>20.12057943994258</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>69.34789868787078</v>
       </c>
       <c r="K11" t="n">
-        <v>48.39545783628775</v>
+        <v>42.14925551247998</v>
       </c>
       <c r="L11" t="n">
-        <v>65.51189908069391</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>58.81950869080144</v>
       </c>
       <c r="N11" t="n">
-        <v>72.40356150710446</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>56.03197842934708</v>
+        <v>56.03197842934713</v>
       </c>
       <c r="P11" t="n">
-        <v>44.34595275045517</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>25.38106515843383</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>14.8385636850126</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35480,7 +35480,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>22.76176236188099</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>69.44556422910095</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35513,7 +35513,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>46.68380186721998</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>34.28745664754925</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>67.68547418291737</v>
+        <v>43.56583495489226</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35559,13 +35559,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>53.59677039642484</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -35589,7 +35589,7 @@
         <v>72.40356150710446</v>
       </c>
       <c r="R13" t="n">
-        <v>28.97460853020375</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20.12057943994261</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>18.67596435269241</v>
       </c>
       <c r="K14" t="n">
-        <v>17.89612356751994</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>45.79869349898752</v>
+        <v>45.7986934989876</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>58.81950869080147</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>56.03197842934716</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>72.40356150710446</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>72.40356150710446</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>37.96728067972557</v>
-      </c>
-      <c r="R14" t="n">
-        <v>25.38106515843382</v>
-      </c>
       <c r="S14" t="n">
-        <v>14.83856368501259</v>
+        <v>14.83856368501263</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35702,7 +35702,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>41.41093784117083</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>69.44556422910095</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35753,7 +35753,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>14.87642849218657</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -35765,10 +35765,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>8.346451626009099</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>4.811746269734372</v>
       </c>
     </row>
     <row r="16">
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.28745664754925</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35787,7 +35787,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>67.6854741829174</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>43.56583495489226</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>72.40356150710446</v>
+        <v>10.16781741952392</v>
       </c>
       <c r="P16" t="n">
-        <v>72.40356150710446</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>69.47816508257498</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="K17" t="n">
-        <v>69.47816508257498</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>72.40356150710446</v>
       </c>
-      <c r="N17" t="n">
+      <c r="U17" t="n">
         <v>72.40356150710446</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>72.40356150710446</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>69.47816508257498</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,28 +36133,28 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>72.40356150710446</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
         <v>72.40356150710446</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>49.38622323215979</v>
-      </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="U20" t="n">
-        <v>72.40356150710446</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>20.0919418504152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36349,10 +36349,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>12.74642708286479</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="J23" t="n">
         <v>72.40356150710446</v>
@@ -36364,34 +36364,34 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>36.63979614929507</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>72.40356150710446</v>
       </c>
-      <c r="N23" t="n">
-        <v>69.47816508257498</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>72.40356150710446</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>20.09194185041514</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>27.22608345604194</v>
       </c>
       <c r="J26" t="n">
-        <v>76.45340270397014</v>
+        <v>241.3382998104806</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>52.90419751508691</v>
+        <v>52.90419751508693</v>
       </c>
       <c r="M26" t="n">
-        <v>308.6931774910976</v>
+        <v>294.2136053541474</v>
       </c>
       <c r="N26" t="n">
-        <v>430.5925962394319</v>
+        <v>68.07251001241238</v>
       </c>
       <c r="O26" t="n">
-        <v>430.5925962394319</v>
+        <v>270.4330111110256</v>
       </c>
       <c r="P26" t="n">
         <v>373.2501649380372</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>257.3877753557297</v>
       </c>
       <c r="R26" t="n">
-        <v>32.4865691745332</v>
+        <v>98.20298904751564</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>21.94406770111195</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36665,7 +36665,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>47.6962406414078</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>47.69624064140771</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.39296066364864</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36762,22 +36762,22 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>122.8767693353659</v>
+        <v>122.8767693353658</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>10.34731365501445</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>52.2896581749072</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.5493838562439328</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>27.22608345604193</v>
+        <v>27.22608345604194</v>
       </c>
       <c r="J29" t="n">
-        <v>87.78413815858882</v>
+        <v>245.5500178760439</v>
       </c>
       <c r="K29" t="n">
-        <v>102.5250768534465</v>
+        <v>379.6463744235519</v>
       </c>
       <c r="L29" t="n">
-        <v>249.3404712199514</v>
+        <v>52.90419751508693</v>
       </c>
       <c r="M29" t="n">
         <v>430.5925962394319</v>
       </c>
       <c r="N29" t="n">
-        <v>68.07251001241232</v>
+        <v>68.07251001241238</v>
       </c>
       <c r="O29" t="n">
-        <v>430.5925962394319</v>
+        <v>71.99463590810856</v>
       </c>
       <c r="P29" t="n">
-        <v>51.45145676655453</v>
+        <v>51.45145676655457</v>
       </c>
       <c r="Q29" t="n">
-        <v>257.3877753557296</v>
+        <v>257.3877753557297</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>98.20298904751564</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>21.94406770111195</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>25.7143081331219</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,13 +36932,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>47.6962406414078</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>21.9819325082859</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>65.30021280116463</v>
+        <v>0.004115158318857226</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>174.6129284957103</v>
       </c>
       <c r="O31" t="n">
-        <v>109.8662147091084</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37014,7 +37014,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.5493838562439066</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>27.22608345604197</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>245.5500178760439</v>
       </c>
       <c r="K32" t="n">
-        <v>55.50096185238711</v>
+        <v>379.6463744235519</v>
       </c>
       <c r="L32" t="n">
+        <v>338.305663773136</v>
+      </c>
+      <c r="M32" t="n">
+        <v>65.92501270690083</v>
+      </c>
+      <c r="N32" t="n">
+        <v>68.07251001241241</v>
+      </c>
+      <c r="O32" t="n">
         <v>430.5925962394319</v>
       </c>
-      <c r="M32" t="n">
-        <v>430.5925962394319</v>
-      </c>
-      <c r="N32" t="n">
-        <v>284.1944935788106</v>
-      </c>
-      <c r="O32" t="n">
-        <v>375.0812457546149</v>
-      </c>
       <c r="P32" t="n">
-        <v>51.45145676655453</v>
+        <v>51.4514567665546</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07278469582493</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>32.48656917453317</v>
+        <v>98.20298904751567</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>47.6962406414078</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37172,7 +37172,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>32.15399557312614</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -37190,7 +37190,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>15.54224506828157</v>
       </c>
     </row>
     <row r="34">
@@ -37203,10 +37203,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>53.9781197469581</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>68.63662839318769</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>65.30021280116463</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.8662147091084</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>52.55167937012706</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>50.64139524743953</v>
       </c>
       <c r="J35" t="n">
-        <v>268.9653296674415</v>
+        <v>99.86871449536773</v>
       </c>
       <c r="K35" t="n">
-        <v>78.91627364378469</v>
+        <v>78.91627364378473</v>
       </c>
       <c r="L35" t="n">
+        <v>76.31950930648452</v>
+      </c>
+      <c r="M35" t="n">
+        <v>235.8973794522523</v>
+      </c>
+      <c r="N35" t="n">
+        <v>91.48782180380996</v>
+      </c>
+      <c r="O35" t="n">
         <v>358.1890347323275</v>
       </c>
-      <c r="M35" t="n">
-        <v>89.34032449829833</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>358.1890347323275</v>
       </c>
-      <c r="O35" t="n">
-        <v>86.55279423684402</v>
-      </c>
-      <c r="P35" t="n">
-        <v>30.32577394212649</v>
-      </c>
       <c r="Q35" t="n">
-        <v>68.48809648722252</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.90188096593076</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>45.35937949250954</v>
       </c>
       <c r="T35" t="n">
         <v>23.41531179139757</v>
@@ -37370,40 +37370,40 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>7.197970129513433</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>64.80827245504619</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>92.89710847207282</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37503,10 +37503,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>2.033236732137925</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>26.0555992848887</v>
       </c>
     </row>
     <row r="38">
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.64139524743952</v>
+        <v>50.64139524743953</v>
       </c>
       <c r="J38" t="n">
-        <v>268.9653296674415</v>
+        <v>99.86871449536773</v>
       </c>
       <c r="K38" t="n">
-        <v>190.2050188553269</v>
+        <v>78.91627364378473</v>
       </c>
       <c r="L38" t="n">
-        <v>195.6988446633096</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>89.34032449829839</v>
       </c>
       <c r="N38" t="n">
+        <v>91.48782180380996</v>
+      </c>
+      <c r="O38" t="n">
+        <v>86.55279423684408</v>
+      </c>
+      <c r="P38" t="n">
         <v>358.1890347323277</v>
       </c>
-      <c r="O38" t="n">
-        <v>86.55279423684402</v>
-      </c>
-      <c r="P38" t="n">
-        <v>74.86676855795211</v>
-      </c>
       <c r="Q38" t="n">
-        <v>68.48809648722252</v>
+        <v>68.48809648722255</v>
       </c>
       <c r="R38" t="n">
-        <v>55.90188096593076</v>
+        <v>67.83567353637234</v>
       </c>
       <c r="S38" t="n">
-        <v>45.35937949250953</v>
+        <v>45.35937949250954</v>
       </c>
       <c r="T38" t="n">
         <v>23.41531179139757</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>7.197970129513436</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37664,7 +37664,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.197970129513436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -37674,10 +37674,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>64.80827245504619</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>10.57503389732504</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>92.89710847207283</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>17.51380211970159</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>50.64139524743953</v>
       </c>
       <c r="J41" t="n">
-        <v>7.516690752515679</v>
+        <v>99.86871449536773</v>
       </c>
       <c r="K41" t="n">
-        <v>78.91627364378461</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="L41" t="n">
-        <v>76.31950930648438</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>358.1890347323277</v>
       </c>
       <c r="N41" t="n">
-        <v>358.1890347323277</v>
+        <v>91.48782180380996</v>
       </c>
       <c r="O41" t="n">
-        <v>339.8965655191565</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>74.86676855795203</v>
+        <v>74.86676855795216</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.48809648722244</v>
+        <v>260.3645128786391</v>
       </c>
       <c r="R41" t="n">
-        <v>55.90188096593067</v>
+        <v>55.90188096593078</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>45.35937949250954</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>23.41531179139757</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>7.197970129513436</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>7.197970129513522</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.89710847207283</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.93241282443169</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>23.9646956476414</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38011,19 +38011,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>50.64139524743953</v>
       </c>
       <c r="J44" t="n">
-        <v>99.86871449536761</v>
+        <v>99.86871449536773</v>
       </c>
       <c r="K44" t="n">
-        <v>78.91627364378461</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="L44" t="n">
-        <v>310.9912407648129</v>
+        <v>28.42335753391819</v>
       </c>
       <c r="M44" t="n">
-        <v>358.1890347323277</v>
+        <v>89.34032449829839</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,19 +38032,19 @@
         <v>358.1890347323277</v>
       </c>
       <c r="P44" t="n">
-        <v>74.86676855795203</v>
+        <v>74.86676855795216</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.48809648722244</v>
+        <v>234.0886526502324</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>55.90188096593078</v>
       </c>
       <c r="S44" t="n">
-        <v>45.35937949250945</v>
+        <v>45.35937949250954</v>
       </c>
       <c r="T44" t="n">
-        <v>23.41531179139749</v>
+        <v>23.41531179139757</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38072,7 +38072,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>7.197970129513522</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -38126,7 +38126,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>7.197970129513436</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>6.432414171894711</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>92.89710847207309</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38199,10 +38199,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>23.96469564764149</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.51380211970159</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>18.93059724794634</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>26.0555992848887</v>
       </c>
     </row>
   </sheetData>
